--- a/REGULAR/ONT/LAROZA, KIM VINCENT L..xlsx
+++ b/REGULAR/ONT/LAROZA, KIM VINCENT L..xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
-  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\ONT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\ONT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6372938F-DA17-4868-8D37-B5445A7C8152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
   <si>
     <t>PERIOD</t>
   </si>
@@ -222,11 +221,20 @@
   <si>
     <t>12/26-28/2022</t>
   </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>FL(3-0-0)</t>
+  </si>
+  <si>
+    <t>1/16,17,24/2024</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1101,7 +1109,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1144,7 +1152,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1208,7 +1216,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1268,7 +1276,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1334,7 +1342,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1397,7 +1405,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1495,7 +1503,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1554,7 +1562,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1619,7 +1627,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1662,7 +1670,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1737,7 +1745,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1923,7 +1931,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1989,7 +1997,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2047,7 +2055,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2113,7 +2121,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2169,7 +2177,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2244,7 +2252,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2287,7 +2295,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2353,7 +2361,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2409,7 +2417,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2507,7 +2515,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2570,7 +2578,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2619,7 +2627,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2636,25 +2644,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K511" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K512" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2666,13 +2674,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2681,14 +2689,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2992,7 +3000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3002,7 +3010,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3010,34 +3018,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K511"/>
+  <dimension ref="A2:K512"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4056" topLeftCell="A71" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A65" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="D82" sqref="D82"/>
+      <selection pane="bottomLeft" activeCell="K84" sqref="K84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3058,7 +3066,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3078,7 +3086,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3100,7 +3108,7 @@
       <c r="J4" s="59"/>
       <c r="K4" s="60"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3108,7 +3116,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3121,7 +3129,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -3138,7 +3146,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3173,7 +3181,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3182,7 +3190,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>56</v>
+        <v>51.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3192,12 +3200,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>58</v>
+        <v>61.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -3215,7 +3223,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43281</v>
       </c>
@@ -3235,7 +3243,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43312</v>
       </c>
@@ -3255,7 +3263,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43343</v>
       </c>
@@ -3275,7 +3283,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="49"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43373</v>
       </c>
@@ -3295,7 +3303,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43404</v>
       </c>
@@ -3315,7 +3323,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43434</v>
       </c>
@@ -3341,7 +3349,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43465</v>
       </c>
@@ -3361,7 +3369,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="49"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="48" t="s">
         <v>44</v>
       </c>
@@ -3379,7 +3387,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="49"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43496</v>
       </c>
@@ -3399,7 +3407,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43524</v>
       </c>
@@ -3419,7 +3427,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="50"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43555</v>
       </c>
@@ -3439,7 +3447,7 @@
       <c r="J21" s="12"/>
       <c r="K21" s="50"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43585</v>
       </c>
@@ -3459,7 +3467,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>43616</v>
       </c>
@@ -3479,7 +3487,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43646</v>
       </c>
@@ -3499,7 +3507,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43677</v>
       </c>
@@ -3525,7 +3533,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43708</v>
       </c>
@@ -3551,7 +3559,7 @@
         <v>43697</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43738</v>
       </c>
@@ -3571,7 +3579,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43769</v>
       </c>
@@ -3591,7 +3599,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43799</v>
       </c>
@@ -3611,7 +3619,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43830</v>
       </c>
@@ -3635,7 +3643,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="48" t="s">
         <v>45</v>
       </c>
@@ -3653,7 +3661,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43861</v>
       </c>
@@ -3673,7 +3681,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43890</v>
       </c>
@@ -3699,7 +3707,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43921</v>
       </c>
@@ -3719,7 +3727,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43951</v>
       </c>
@@ -3739,7 +3747,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>43982</v>
       </c>
@@ -3759,7 +3767,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>44012</v>
       </c>
@@ -3779,7 +3787,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>44043</v>
       </c>
@@ -3799,7 +3807,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>44074</v>
       </c>
@@ -3819,7 +3827,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>44104</v>
       </c>
@@ -3839,7 +3847,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>44135</v>
       </c>
@@ -3859,7 +3867,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>44165</v>
       </c>
@@ -3879,7 +3887,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>44196</v>
       </c>
@@ -3903,7 +3911,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="48" t="s">
         <v>46</v>
       </c>
@@ -3921,7 +3929,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44227</v>
       </c>
@@ -3941,7 +3949,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>44255</v>
       </c>
@@ -3961,7 +3969,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44286</v>
       </c>
@@ -3981,7 +3989,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44316</v>
       </c>
@@ -4001,7 +4009,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>44347</v>
       </c>
@@ -4021,7 +4029,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44377</v>
       </c>
@@ -4041,7 +4049,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44408</v>
       </c>
@@ -4061,7 +4069,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44439</v>
       </c>
@@ -4081,7 +4089,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44469</v>
       </c>
@@ -4101,7 +4109,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="49"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44500</v>
       </c>
@@ -4121,7 +4129,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="49"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44530</v>
       </c>
@@ -4141,7 +4149,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44561</v>
       </c>
@@ -4165,7 +4173,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="49"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="48" t="s">
         <v>47</v>
       </c>
@@ -4183,7 +4191,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="49"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44592</v>
       </c>
@@ -4203,7 +4211,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="49"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44620</v>
       </c>
@@ -4223,7 +4231,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="49"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44651</v>
       </c>
@@ -4243,7 +4251,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44681</v>
       </c>
@@ -4263,7 +4271,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="49"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>44712</v>
       </c>
@@ -4283,7 +4291,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="49"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44742</v>
       </c>
@@ -4303,7 +4311,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44773</v>
       </c>
@@ -4323,7 +4331,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44804</v>
       </c>
@@ -4343,7 +4351,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44834</v>
       </c>
@@ -4363,7 +4371,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="49"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44865</v>
       </c>
@@ -4383,7 +4391,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44895</v>
       </c>
@@ -4409,7 +4417,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44926</v>
       </c>
@@ -4435,7 +4443,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="48" t="s">
         <v>48</v>
       </c>
@@ -4453,7 +4461,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="49"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44957</v>
       </c>
@@ -4473,7 +4481,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44985</v>
       </c>
@@ -4493,7 +4501,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>45016</v>
       </c>
@@ -4513,7 +4521,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>45046</v>
       </c>
@@ -4533,7 +4541,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>45077</v>
       </c>
@@ -4553,7 +4561,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>45107</v>
       </c>
@@ -4573,7 +4581,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>45138</v>
       </c>
@@ -4593,7 +4601,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>45169</v>
       </c>
@@ -4613,7 +4621,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>45199</v>
       </c>
@@ -4633,63 +4641,73 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>45230</v>
       </c>
       <c r="B80" s="20"/>
-      <c r="C80" s="13"/>
+      <c r="C80" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="39"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>45260</v>
       </c>
       <c r="B81" s="20"/>
-      <c r="C81" s="13"/>
+      <c r="C81" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="39"/>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
       <c r="K81" s="49"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>45291</v>
       </c>
-      <c r="B82" s="20"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="39"/>
+      <c r="B82" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D82" s="39">
+        <v>5</v>
+      </c>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
       <c r="K82" s="49"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="40">
-        <v>45322</v>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="48" t="s">
+        <v>62</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4705,13 +4723,17 @@
       <c r="J83" s="11"/>
       <c r="K83" s="49"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
-        <v>45351</v>
-      </c>
-      <c r="B84" s="20"/>
+        <v>45322</v>
+      </c>
+      <c r="B84" s="20" t="s">
+        <v>63</v>
+      </c>
       <c r="C84" s="13"/>
-      <c r="D84" s="39"/>
+      <c r="D84" s="39">
+        <v>3</v>
+      </c>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
       <c r="G84" s="13" t="str">
@@ -4721,11 +4743,13 @@
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
-      <c r="K84" s="20"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K84" s="49" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
-        <v>45382</v>
+        <v>45351</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4741,8 +4765,10 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="40"/>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="40">
+        <v>45382</v>
+      </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
       <c r="D86" s="39"/>
@@ -4755,9 +4781,9 @@
       <c r="H86" s="39"/>
       <c r="I86" s="9"/>
       <c r="J86" s="11"/>
-      <c r="K86" s="49"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K86" s="20"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4771,9 +4797,9 @@
       <c r="H87" s="39"/>
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
-      <c r="K87" s="20"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K87" s="49"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4787,9 +4813,9 @@
       <c r="H88" s="39"/>
       <c r="I88" s="9"/>
       <c r="J88" s="11"/>
-      <c r="K88" s="49"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K88" s="20"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4803,9 +4829,9 @@
       <c r="H89" s="39"/>
       <c r="I89" s="9"/>
       <c r="J89" s="11"/>
-      <c r="K89" s="20"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K89" s="49"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4821,7 +4847,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4835,9 +4861,9 @@
       <c r="H91" s="39"/>
       <c r="I91" s="9"/>
       <c r="J91" s="11"/>
-      <c r="K91" s="49"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K91" s="20"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4853,7 +4879,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="49"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4869,7 +4895,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="49"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4883,9 +4909,9 @@
       <c r="H94" s="39"/>
       <c r="I94" s="9"/>
       <c r="J94" s="11"/>
-      <c r="K94" s="20"/>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K94" s="49"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4901,7 +4927,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4915,9 +4941,9 @@
       <c r="H96" s="39"/>
       <c r="I96" s="9"/>
       <c r="J96" s="11"/>
-      <c r="K96" s="49"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K96" s="20"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4933,7 +4959,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="49"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4947,9 +4973,9 @@
       <c r="H98" s="39"/>
       <c r="I98" s="9"/>
       <c r="J98" s="11"/>
-      <c r="K98" s="20"/>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K98" s="49"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4963,10 +4989,10 @@
       <c r="H99" s="39"/>
       <c r="I99" s="9"/>
       <c r="J99" s="11"/>
-      <c r="K99" s="49"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100" s="48"/>
+      <c r="K99" s="20"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
       <c r="D100" s="39"/>
@@ -4981,8 +5007,8 @@
       <c r="J100" s="11"/>
       <c r="K100" s="49"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101" s="40"/>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="48"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
       <c r="D101" s="39"/>
@@ -4995,9 +5021,9 @@
       <c r="H101" s="39"/>
       <c r="I101" s="9"/>
       <c r="J101" s="11"/>
-      <c r="K101" s="20"/>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K101" s="49"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5013,7 +5039,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5029,7 +5055,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5045,7 +5071,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5059,9 +5085,9 @@
       <c r="H105" s="39"/>
       <c r="I105" s="9"/>
       <c r="J105" s="11"/>
-      <c r="K105" s="49"/>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K105" s="20"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5075,9 +5101,9 @@
       <c r="H106" s="39"/>
       <c r="I106" s="9"/>
       <c r="J106" s="11"/>
-      <c r="K106" s="20"/>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K106" s="49"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5093,7 +5119,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5109,7 +5135,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5125,7 +5151,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5139,9 +5165,9 @@
       <c r="H110" s="39"/>
       <c r="I110" s="9"/>
       <c r="J110" s="11"/>
-      <c r="K110" s="49"/>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K110" s="20"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5157,7 +5183,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="49"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5171,9 +5197,9 @@
       <c r="H112" s="39"/>
       <c r="I112" s="9"/>
       <c r="J112" s="11"/>
-      <c r="K112" s="20"/>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K112" s="49"/>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5189,7 +5215,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5205,7 +5231,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5221,7 +5247,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5235,9 +5261,9 @@
       <c r="H116" s="39"/>
       <c r="I116" s="9"/>
       <c r="J116" s="11"/>
-      <c r="K116" s="49"/>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K116" s="20"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5253,7 +5279,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="49"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5267,10 +5293,10 @@
       <c r="H118" s="39"/>
       <c r="I118" s="9"/>
       <c r="J118" s="11"/>
-      <c r="K118" s="20"/>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A119" s="48"/>
+      <c r="K118" s="49"/>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
       <c r="D119" s="39"/>
@@ -5285,8 +5311,8 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A120" s="40"/>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" s="48"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
       <c r="D120" s="39"/>
@@ -5301,7 +5327,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5317,7 +5343,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5333,7 +5359,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5349,7 +5375,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5365,7 +5391,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5381,7 +5407,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5395,9 +5421,9 @@
       <c r="H126" s="39"/>
       <c r="I126" s="9"/>
       <c r="J126" s="11"/>
-      <c r="K126" s="49"/>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K126" s="20"/>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5411,9 +5437,9 @@
       <c r="H127" s="39"/>
       <c r="I127" s="9"/>
       <c r="J127" s="11"/>
-      <c r="K127" s="20"/>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K127" s="49"/>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5429,7 +5455,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5445,7 +5471,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5461,7 +5487,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5477,8 +5503,8 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A132" s="48"/>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
       <c r="D132" s="39"/>
@@ -5493,8 +5519,8 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A133" s="40"/>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" s="48"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
       <c r="D133" s="39"/>
@@ -5509,7 +5535,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5525,7 +5551,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5541,7 +5567,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5557,7 +5583,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -5573,7 +5599,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40"/>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -5587,9 +5613,9 @@
       <c r="H138" s="39"/>
       <c r="I138" s="9"/>
       <c r="J138" s="11"/>
-      <c r="K138" s="49"/>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K138" s="20"/>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40"/>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -5603,9 +5629,9 @@
       <c r="H139" s="39"/>
       <c r="I139" s="9"/>
       <c r="J139" s="11"/>
-      <c r="K139" s="20"/>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K139" s="49"/>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40"/>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -5621,7 +5647,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40"/>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -5637,7 +5663,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40"/>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -5651,9 +5677,9 @@
       <c r="H142" s="39"/>
       <c r="I142" s="9"/>
       <c r="J142" s="11"/>
-      <c r="K142" s="49"/>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K142" s="20"/>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40"/>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -5669,7 +5695,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="49"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40"/>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -5683,9 +5709,9 @@
       <c r="H144" s="39"/>
       <c r="I144" s="9"/>
       <c r="J144" s="11"/>
-      <c r="K144" s="20"/>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K144" s="49"/>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40"/>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -5699,9 +5725,9 @@
       <c r="H145" s="39"/>
       <c r="I145" s="9"/>
       <c r="J145" s="11"/>
-      <c r="K145" s="49"/>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K145" s="20"/>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40"/>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -5717,7 +5743,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="49"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40"/>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -5733,7 +5759,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="49"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40"/>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
@@ -5749,7 +5775,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="49"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40"/>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
@@ -5765,7 +5791,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="49"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40"/>
       <c r="B150" s="20"/>
       <c r="C150" s="13"/>
@@ -5779,10 +5805,10 @@
       <c r="H150" s="39"/>
       <c r="I150" s="9"/>
       <c r="J150" s="11"/>
-      <c r="K150" s="20"/>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A151" s="48"/>
+      <c r="K150" s="49"/>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A151" s="40"/>
       <c r="B151" s="20"/>
       <c r="C151" s="13"/>
       <c r="D151" s="39"/>
@@ -5797,8 +5823,8 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A152" s="40"/>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A152" s="48"/>
       <c r="B152" s="20"/>
       <c r="C152" s="13"/>
       <c r="D152" s="39"/>
@@ -5813,7 +5839,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40"/>
       <c r="B153" s="20"/>
       <c r="C153" s="13"/>
@@ -5829,7 +5855,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40"/>
       <c r="B154" s="20"/>
       <c r="C154" s="13"/>
@@ -5845,7 +5871,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40"/>
       <c r="B155" s="20"/>
       <c r="C155" s="13"/>
@@ -5861,7 +5887,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40"/>
       <c r="B156" s="20"/>
       <c r="C156" s="13"/>
@@ -5877,7 +5903,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40"/>
       <c r="B157" s="20"/>
       <c r="C157" s="13"/>
@@ -5893,7 +5919,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40"/>
       <c r="B158" s="20"/>
       <c r="C158" s="13"/>
@@ -5909,7 +5935,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40"/>
       <c r="B159" s="20"/>
       <c r="C159" s="13"/>
@@ -5925,7 +5951,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40"/>
       <c r="B160" s="20"/>
       <c r="C160" s="13"/>
@@ -5941,7 +5967,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40"/>
       <c r="B161" s="20"/>
       <c r="C161" s="13"/>
@@ -5957,7 +5983,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40"/>
       <c r="B162" s="20"/>
       <c r="C162" s="13"/>
@@ -5973,7 +5999,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40"/>
       <c r="B163" s="20"/>
       <c r="C163" s="13"/>
@@ -5989,8 +6015,8 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A164" s="48"/>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A164" s="40"/>
       <c r="B164" s="20"/>
       <c r="C164" s="13"/>
       <c r="D164" s="39"/>
@@ -6005,8 +6031,8 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A165" s="40"/>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A165" s="48"/>
       <c r="B165" s="20"/>
       <c r="C165" s="13"/>
       <c r="D165" s="39"/>
@@ -6021,7 +6047,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40"/>
       <c r="B166" s="20"/>
       <c r="C166" s="13"/>
@@ -6037,7 +6063,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40"/>
       <c r="B167" s="20"/>
       <c r="C167" s="13"/>
@@ -6053,7 +6079,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40"/>
       <c r="B168" s="20"/>
       <c r="C168" s="13"/>
@@ -6067,9 +6093,9 @@
       <c r="H168" s="39"/>
       <c r="I168" s="9"/>
       <c r="J168" s="11"/>
-      <c r="K168" s="49"/>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K168" s="20"/>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40"/>
       <c r="B169" s="20"/>
       <c r="C169" s="13"/>
@@ -6083,9 +6109,9 @@
       <c r="H169" s="39"/>
       <c r="I169" s="9"/>
       <c r="J169" s="11"/>
-      <c r="K169" s="20"/>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K169" s="49"/>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40"/>
       <c r="B170" s="20"/>
       <c r="C170" s="13"/>
@@ -6101,7 +6127,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40"/>
       <c r="B171" s="20"/>
       <c r="C171" s="13"/>
@@ -6117,7 +6143,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40"/>
       <c r="B172" s="20"/>
       <c r="C172" s="13"/>
@@ -6131,9 +6157,9 @@
       <c r="H172" s="39"/>
       <c r="I172" s="9"/>
       <c r="J172" s="11"/>
-      <c r="K172" s="49"/>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K172" s="20"/>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40"/>
       <c r="B173" s="20"/>
       <c r="C173" s="13"/>
@@ -6147,9 +6173,9 @@
       <c r="H173" s="39"/>
       <c r="I173" s="9"/>
       <c r="J173" s="11"/>
-      <c r="K173" s="20"/>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K173" s="49"/>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40"/>
       <c r="B174" s="20"/>
       <c r="C174" s="13"/>
@@ -6163,9 +6189,9 @@
       <c r="H174" s="39"/>
       <c r="I174" s="9"/>
       <c r="J174" s="11"/>
-      <c r="K174" s="49"/>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K174" s="20"/>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40"/>
       <c r="B175" s="20"/>
       <c r="C175" s="13"/>
@@ -6179,9 +6205,9 @@
       <c r="H175" s="39"/>
       <c r="I175" s="9"/>
       <c r="J175" s="11"/>
-      <c r="K175" s="20"/>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K175" s="49"/>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40"/>
       <c r="B176" s="20"/>
       <c r="C176" s="13"/>
@@ -6197,7 +6223,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40"/>
       <c r="B177" s="20"/>
       <c r="C177" s="13"/>
@@ -6211,9 +6237,9 @@
       <c r="H177" s="39"/>
       <c r="I177" s="9"/>
       <c r="J177" s="11"/>
-      <c r="K177" s="49"/>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K177" s="20"/>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40"/>
       <c r="B178" s="20"/>
       <c r="C178" s="13"/>
@@ -6229,7 +6255,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="49"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40"/>
       <c r="B179" s="20"/>
       <c r="C179" s="13"/>
@@ -6245,7 +6271,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="49"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40"/>
       <c r="B180" s="20"/>
       <c r="C180" s="13"/>
@@ -6261,7 +6287,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="49"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40"/>
       <c r="B181" s="20"/>
       <c r="C181" s="13"/>
@@ -6275,9 +6301,9 @@
       <c r="H181" s="39"/>
       <c r="I181" s="9"/>
       <c r="J181" s="11"/>
-      <c r="K181" s="20"/>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K181" s="49"/>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40"/>
       <c r="B182" s="20"/>
       <c r="C182" s="13"/>
@@ -6291,10 +6317,10 @@
       <c r="H182" s="39"/>
       <c r="I182" s="9"/>
       <c r="J182" s="11"/>
-      <c r="K182" s="49"/>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A183" s="48"/>
+      <c r="K182" s="20"/>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A183" s="40"/>
       <c r="B183" s="20"/>
       <c r="C183" s="13"/>
       <c r="D183" s="39"/>
@@ -6309,8 +6335,8 @@
       <c r="J183" s="11"/>
       <c r="K183" s="49"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A184" s="40"/>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A184" s="48"/>
       <c r="B184" s="20"/>
       <c r="C184" s="13"/>
       <c r="D184" s="39"/>
@@ -6325,7 +6351,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="49"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40"/>
       <c r="B185" s="20"/>
       <c r="C185" s="13"/>
@@ -6339,9 +6365,9 @@
       <c r="H185" s="39"/>
       <c r="I185" s="9"/>
       <c r="J185" s="11"/>
-      <c r="K185" s="20"/>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K185" s="49"/>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40"/>
       <c r="B186" s="20"/>
       <c r="C186" s="13"/>
@@ -6357,7 +6383,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40"/>
       <c r="B187" s="20"/>
       <c r="C187" s="13"/>
@@ -6371,9 +6397,9 @@
       <c r="H187" s="39"/>
       <c r="I187" s="9"/>
       <c r="J187" s="11"/>
-      <c r="K187" s="49"/>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K187" s="20"/>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40"/>
       <c r="B188" s="20"/>
       <c r="C188" s="13"/>
@@ -6389,7 +6415,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="49"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40"/>
       <c r="B189" s="20"/>
       <c r="C189" s="13"/>
@@ -6403,9 +6429,9 @@
       <c r="H189" s="39"/>
       <c r="I189" s="9"/>
       <c r="J189" s="11"/>
-      <c r="K189" s="20"/>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K189" s="49"/>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40"/>
       <c r="B190" s="20"/>
       <c r="C190" s="13"/>
@@ -6421,7 +6447,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40"/>
       <c r="B191" s="20"/>
       <c r="C191" s="13"/>
@@ -6437,7 +6463,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40"/>
       <c r="B192" s="20"/>
       <c r="C192" s="13"/>
@@ -6451,9 +6477,9 @@
       <c r="H192" s="39"/>
       <c r="I192" s="9"/>
       <c r="J192" s="11"/>
-      <c r="K192" s="49"/>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K192" s="20"/>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40"/>
       <c r="B193" s="20"/>
       <c r="C193" s="13"/>
@@ -6467,9 +6493,9 @@
       <c r="H193" s="39"/>
       <c r="I193" s="9"/>
       <c r="J193" s="11"/>
-      <c r="K193" s="20"/>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K193" s="49"/>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40"/>
       <c r="B194" s="20"/>
       <c r="C194" s="13"/>
@@ -6483,9 +6509,9 @@
       <c r="H194" s="39"/>
       <c r="I194" s="9"/>
       <c r="J194" s="11"/>
-      <c r="K194" s="49"/>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K194" s="20"/>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40"/>
       <c r="B195" s="20"/>
       <c r="C195" s="13"/>
@@ -6499,25 +6525,25 @@
       <c r="H195" s="39"/>
       <c r="I195" s="9"/>
       <c r="J195" s="11"/>
-      <c r="K195" s="20"/>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K195" s="49"/>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40"/>
-      <c r="B196" s="15"/>
+      <c r="B196" s="20"/>
       <c r="C196" s="13"/>
-      <c r="D196" s="43"/>
+      <c r="D196" s="39"/>
       <c r="E196" s="9"/>
-      <c r="F196" s="15"/>
+      <c r="F196" s="20"/>
       <c r="G196" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H196" s="39"/>
       <c r="I196" s="9"/>
-      <c r="J196" s="12"/>
-      <c r="K196" s="50"/>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J196" s="11"/>
+      <c r="K196" s="20"/>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40"/>
       <c r="B197" s="15"/>
       <c r="C197" s="13"/>
@@ -6531,25 +6557,25 @@
       <c r="H197" s="39"/>
       <c r="I197" s="9"/>
       <c r="J197" s="12"/>
-      <c r="K197" s="15"/>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K197" s="50"/>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40"/>
-      <c r="B198" s="20"/>
+      <c r="B198" s="15"/>
       <c r="C198" s="13"/>
-      <c r="D198" s="39"/>
+      <c r="D198" s="43"/>
       <c r="E198" s="9"/>
-      <c r="F198" s="20"/>
+      <c r="F198" s="15"/>
       <c r="G198" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H198" s="39"/>
       <c r="I198" s="9"/>
-      <c r="J198" s="11"/>
-      <c r="K198" s="49"/>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J198" s="12"/>
+      <c r="K198" s="15"/>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40"/>
       <c r="B199" s="20"/>
       <c r="C199" s="13"/>
@@ -6563,9 +6589,9 @@
       <c r="H199" s="39"/>
       <c r="I199" s="9"/>
       <c r="J199" s="11"/>
-      <c r="K199" s="20"/>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K199" s="49"/>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40"/>
       <c r="B200" s="20"/>
       <c r="C200" s="13"/>
@@ -6579,9 +6605,9 @@
       <c r="H200" s="39"/>
       <c r="I200" s="9"/>
       <c r="J200" s="11"/>
-      <c r="K200" s="49"/>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K200" s="20"/>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40"/>
       <c r="B201" s="20"/>
       <c r="C201" s="13"/>
@@ -6595,9 +6621,9 @@
       <c r="H201" s="39"/>
       <c r="I201" s="9"/>
       <c r="J201" s="11"/>
-      <c r="K201" s="20"/>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K201" s="49"/>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40"/>
       <c r="B202" s="20"/>
       <c r="C202" s="13"/>
@@ -6613,7 +6639,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40"/>
       <c r="B203" s="20"/>
       <c r="C203" s="13"/>
@@ -6629,7 +6655,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40"/>
       <c r="B204" s="20"/>
       <c r="C204" s="13"/>
@@ -6643,9 +6669,9 @@
       <c r="H204" s="39"/>
       <c r="I204" s="9"/>
       <c r="J204" s="11"/>
-      <c r="K204" s="49"/>
-    </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K204" s="20"/>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40"/>
       <c r="B205" s="20"/>
       <c r="C205" s="13"/>
@@ -6659,9 +6685,9 @@
       <c r="H205" s="39"/>
       <c r="I205" s="9"/>
       <c r="J205" s="11"/>
-      <c r="K205" s="20"/>
-    </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K205" s="49"/>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40"/>
       <c r="B206" s="20"/>
       <c r="C206" s="13"/>
@@ -6677,7 +6703,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40"/>
       <c r="B207" s="20"/>
       <c r="C207" s="13"/>
@@ -6693,11 +6719,11 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40"/>
       <c r="B208" s="20"/>
       <c r="C208" s="13"/>
-      <c r="D208" s="52"/>
+      <c r="D208" s="39"/>
       <c r="E208" s="9"/>
       <c r="F208" s="20"/>
       <c r="G208" s="13" t="str">
@@ -6709,11 +6735,11 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40"/>
       <c r="B209" s="20"/>
       <c r="C209" s="13"/>
-      <c r="D209" s="39"/>
+      <c r="D209" s="52"/>
       <c r="E209" s="9"/>
       <c r="F209" s="20"/>
       <c r="G209" s="13" t="str">
@@ -6725,7 +6751,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40"/>
       <c r="B210" s="20"/>
       <c r="C210" s="13"/>
@@ -6739,9 +6765,9 @@
       <c r="H210" s="39"/>
       <c r="I210" s="9"/>
       <c r="J210" s="11"/>
-      <c r="K210" s="49"/>
-    </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K210" s="20"/>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40"/>
       <c r="B211" s="20"/>
       <c r="C211" s="13"/>
@@ -6755,9 +6781,9 @@
       <c r="H211" s="39"/>
       <c r="I211" s="9"/>
       <c r="J211" s="11"/>
-      <c r="K211" s="20"/>
-    </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K211" s="49"/>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40"/>
       <c r="B212" s="20"/>
       <c r="C212" s="13"/>
@@ -6773,7 +6799,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40"/>
       <c r="B213" s="20"/>
       <c r="C213" s="13"/>
@@ -6789,7 +6815,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40"/>
       <c r="B214" s="20"/>
       <c r="C214" s="13"/>
@@ -6805,7 +6831,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40"/>
       <c r="B215" s="20"/>
       <c r="C215" s="13"/>
@@ -6819,9 +6845,9 @@
       <c r="H215" s="39"/>
       <c r="I215" s="9"/>
       <c r="J215" s="11"/>
-      <c r="K215" s="49"/>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K215" s="20"/>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40"/>
       <c r="B216" s="20"/>
       <c r="C216" s="13"/>
@@ -6835,9 +6861,9 @@
       <c r="H216" s="39"/>
       <c r="I216" s="9"/>
       <c r="J216" s="11"/>
-      <c r="K216" s="20"/>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K216" s="49"/>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40"/>
       <c r="B217" s="20"/>
       <c r="C217" s="13"/>
@@ -6851,9 +6877,9 @@
       <c r="H217" s="39"/>
       <c r="I217" s="9"/>
       <c r="J217" s="11"/>
-      <c r="K217" s="49"/>
-    </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K217" s="20"/>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40"/>
       <c r="B218" s="20"/>
       <c r="C218" s="13"/>
@@ -6867,9 +6893,9 @@
       <c r="H218" s="39"/>
       <c r="I218" s="9"/>
       <c r="J218" s="11"/>
-      <c r="K218" s="20"/>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K218" s="49"/>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40"/>
       <c r="B219" s="20"/>
       <c r="C219" s="13"/>
@@ -6883,9 +6909,9 @@
       <c r="H219" s="39"/>
       <c r="I219" s="9"/>
       <c r="J219" s="11"/>
-      <c r="K219" s="49"/>
-    </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K219" s="20"/>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40"/>
       <c r="B220" s="20"/>
       <c r="C220" s="13"/>
@@ -6899,9 +6925,9 @@
       <c r="H220" s="39"/>
       <c r="I220" s="9"/>
       <c r="J220" s="11"/>
-      <c r="K220" s="20"/>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K220" s="49"/>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40"/>
       <c r="B221" s="20"/>
       <c r="C221" s="13"/>
@@ -6917,7 +6943,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40"/>
       <c r="B222" s="20"/>
       <c r="C222" s="13"/>
@@ -6933,8 +6959,8 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A223" s="48"/>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A223" s="40"/>
       <c r="B223" s="20"/>
       <c r="C223" s="13"/>
       <c r="D223" s="39"/>
@@ -6949,8 +6975,8 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A224" s="40"/>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A224" s="48"/>
       <c r="B224" s="20"/>
       <c r="C224" s="13"/>
       <c r="D224" s="39"/>
@@ -6963,9 +6989,9 @@
       <c r="H224" s="39"/>
       <c r="I224" s="9"/>
       <c r="J224" s="11"/>
-      <c r="K224" s="49"/>
-    </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K224" s="20"/>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40"/>
       <c r="B225" s="20"/>
       <c r="C225" s="13"/>
@@ -6979,9 +7005,9 @@
       <c r="H225" s="39"/>
       <c r="I225" s="9"/>
       <c r="J225" s="11"/>
-      <c r="K225" s="20"/>
-    </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K225" s="49"/>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40"/>
       <c r="B226" s="20"/>
       <c r="C226" s="13"/>
@@ -6997,7 +7023,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40"/>
       <c r="B227" s="20"/>
       <c r="C227" s="13"/>
@@ -7013,7 +7039,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40"/>
       <c r="B228" s="20"/>
       <c r="C228" s="13"/>
@@ -7029,7 +7055,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40"/>
       <c r="B229" s="20"/>
       <c r="C229" s="13"/>
@@ -7045,7 +7071,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40"/>
       <c r="B230" s="20"/>
       <c r="C230" s="13"/>
@@ -7061,7 +7087,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40"/>
       <c r="B231" s="20"/>
       <c r="C231" s="13"/>
@@ -7077,7 +7103,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40"/>
       <c r="B232" s="20"/>
       <c r="C232" s="13"/>
@@ -7093,7 +7119,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40"/>
       <c r="B233" s="20"/>
       <c r="C233" s="13"/>
@@ -7109,7 +7135,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40"/>
       <c r="B234" s="20"/>
       <c r="C234" s="13"/>
@@ -7125,7 +7151,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40"/>
       <c r="B235" s="20"/>
       <c r="C235" s="13"/>
@@ -7141,7 +7167,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40"/>
       <c r="B236" s="20"/>
       <c r="C236" s="13"/>
@@ -7157,7 +7183,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40"/>
       <c r="B237" s="20"/>
       <c r="C237" s="13"/>
@@ -7173,7 +7199,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40"/>
       <c r="B238" s="20"/>
       <c r="C238" s="13"/>
@@ -7189,7 +7215,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40"/>
       <c r="B239" s="20"/>
       <c r="C239" s="13"/>
@@ -7205,7 +7231,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40"/>
       <c r="B240" s="20"/>
       <c r="C240" s="13"/>
@@ -7221,7 +7247,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40"/>
       <c r="B241" s="20"/>
       <c r="C241" s="13"/>
@@ -7235,9 +7261,9 @@
       <c r="H241" s="39"/>
       <c r="I241" s="9"/>
       <c r="J241" s="11"/>
-      <c r="K241" s="49"/>
-    </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K241" s="20"/>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40"/>
       <c r="B242" s="20"/>
       <c r="C242" s="13"/>
@@ -7251,9 +7277,9 @@
       <c r="H242" s="39"/>
       <c r="I242" s="9"/>
       <c r="J242" s="11"/>
-      <c r="K242" s="20"/>
-    </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K242" s="49"/>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40"/>
       <c r="B243" s="20"/>
       <c r="C243" s="13"/>
@@ -7269,7 +7295,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40"/>
       <c r="B244" s="20"/>
       <c r="C244" s="13"/>
@@ -7285,7 +7311,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40"/>
       <c r="B245" s="20"/>
       <c r="C245" s="13"/>
@@ -7301,7 +7327,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40"/>
       <c r="B246" s="20"/>
       <c r="C246" s="13"/>
@@ -7317,7 +7343,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40"/>
       <c r="B247" s="20"/>
       <c r="C247" s="13"/>
@@ -7331,9 +7357,9 @@
       <c r="H247" s="39"/>
       <c r="I247" s="9"/>
       <c r="J247" s="11"/>
-      <c r="K247" s="49"/>
-    </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K247" s="20"/>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40"/>
       <c r="B248" s="20"/>
       <c r="C248" s="13"/>
@@ -7347,9 +7373,9 @@
       <c r="H248" s="39"/>
       <c r="I248" s="9"/>
       <c r="J248" s="11"/>
-      <c r="K248" s="20"/>
-    </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K248" s="49"/>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40"/>
       <c r="B249" s="20"/>
       <c r="C249" s="13"/>
@@ -7365,7 +7391,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40"/>
       <c r="B250" s="20"/>
       <c r="C250" s="13"/>
@@ -7381,7 +7407,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40"/>
       <c r="B251" s="20"/>
       <c r="C251" s="13"/>
@@ -7397,7 +7423,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40"/>
       <c r="B252" s="20"/>
       <c r="C252" s="13"/>
@@ -7411,9 +7437,9 @@
       <c r="H252" s="39"/>
       <c r="I252" s="9"/>
       <c r="J252" s="11"/>
-      <c r="K252" s="49"/>
-    </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K252" s="20"/>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40"/>
       <c r="B253" s="20"/>
       <c r="C253" s="13"/>
@@ -7429,7 +7455,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="49"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40"/>
       <c r="B254" s="20"/>
       <c r="C254" s="13"/>
@@ -7445,7 +7471,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="49"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40"/>
       <c r="B255" s="20"/>
       <c r="C255" s="13"/>
@@ -7459,9 +7485,9 @@
       <c r="H255" s="39"/>
       <c r="I255" s="9"/>
       <c r="J255" s="11"/>
-      <c r="K255" s="20"/>
-    </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K255" s="49"/>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40"/>
       <c r="B256" s="20"/>
       <c r="C256" s="13"/>
@@ -7477,7 +7503,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40"/>
       <c r="B257" s="20"/>
       <c r="C257" s="13"/>
@@ -7491,9 +7517,9 @@
       <c r="H257" s="39"/>
       <c r="I257" s="9"/>
       <c r="J257" s="11"/>
-      <c r="K257" s="49"/>
-    </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K257" s="20"/>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40"/>
       <c r="B258" s="20"/>
       <c r="C258" s="13"/>
@@ -7507,9 +7533,9 @@
       <c r="H258" s="39"/>
       <c r="I258" s="9"/>
       <c r="J258" s="11"/>
-      <c r="K258" s="20"/>
-    </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K258" s="49"/>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40"/>
       <c r="B259" s="20"/>
       <c r="C259" s="13"/>
@@ -7525,7 +7551,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40"/>
       <c r="B260" s="20"/>
       <c r="C260" s="13"/>
@@ -7541,7 +7567,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40"/>
       <c r="B261" s="20"/>
       <c r="C261" s="13"/>
@@ -7557,7 +7583,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40"/>
       <c r="B262" s="20"/>
       <c r="C262" s="13"/>
@@ -7573,7 +7599,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40"/>
       <c r="B263" s="20"/>
       <c r="C263" s="13"/>
@@ -7589,7 +7615,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40"/>
       <c r="B264" s="20"/>
       <c r="C264" s="13"/>
@@ -7605,7 +7631,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40"/>
       <c r="B265" s="20"/>
       <c r="C265" s="13"/>
@@ -7619,9 +7645,9 @@
       <c r="H265" s="39"/>
       <c r="I265" s="9"/>
       <c r="J265" s="11"/>
-      <c r="K265" s="49"/>
-    </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K265" s="20"/>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40"/>
       <c r="B266" s="20"/>
       <c r="C266" s="13"/>
@@ -7637,7 +7663,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="49"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40"/>
       <c r="B267" s="20"/>
       <c r="C267" s="13"/>
@@ -7651,10 +7677,10 @@
       <c r="H267" s="39"/>
       <c r="I267" s="9"/>
       <c r="J267" s="11"/>
-      <c r="K267" s="20"/>
-    </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A268" s="48"/>
+      <c r="K267" s="49"/>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A268" s="40"/>
       <c r="B268" s="20"/>
       <c r="C268" s="13"/>
       <c r="D268" s="39"/>
@@ -7669,8 +7695,8 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A269" s="40"/>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A269" s="48"/>
       <c r="B269" s="20"/>
       <c r="C269" s="13"/>
       <c r="D269" s="39"/>
@@ -7683,9 +7709,9 @@
       <c r="H269" s="39"/>
       <c r="I269" s="9"/>
       <c r="J269" s="11"/>
-      <c r="K269" s="49"/>
-    </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K269" s="20"/>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40"/>
       <c r="B270" s="20"/>
       <c r="C270" s="13"/>
@@ -7699,9 +7725,9 @@
       <c r="H270" s="39"/>
       <c r="I270" s="9"/>
       <c r="J270" s="11"/>
-      <c r="K270" s="20"/>
-    </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K270" s="49"/>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40"/>
       <c r="B271" s="20"/>
       <c r="C271" s="13"/>
@@ -7715,9 +7741,9 @@
       <c r="H271" s="39"/>
       <c r="I271" s="9"/>
       <c r="J271" s="11"/>
-      <c r="K271" s="49"/>
-    </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K271" s="20"/>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40"/>
       <c r="B272" s="20"/>
       <c r="C272" s="13"/>
@@ -7731,9 +7757,9 @@
       <c r="H272" s="39"/>
       <c r="I272" s="9"/>
       <c r="J272" s="11"/>
-      <c r="K272" s="20"/>
-    </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K272" s="49"/>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40"/>
       <c r="B273" s="20"/>
       <c r="C273" s="13"/>
@@ -7749,7 +7775,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40"/>
       <c r="B274" s="20"/>
       <c r="C274" s="13"/>
@@ -7763,9 +7789,9 @@
       <c r="H274" s="39"/>
       <c r="I274" s="9"/>
       <c r="J274" s="11"/>
-      <c r="K274" s="49"/>
-    </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K274" s="20"/>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40"/>
       <c r="B275" s="20"/>
       <c r="C275" s="13"/>
@@ -7781,7 +7807,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="49"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40"/>
       <c r="B276" s="20"/>
       <c r="C276" s="13"/>
@@ -7795,9 +7821,9 @@
       <c r="H276" s="39"/>
       <c r="I276" s="9"/>
       <c r="J276" s="11"/>
-      <c r="K276" s="20"/>
-    </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K276" s="49"/>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40"/>
       <c r="B277" s="20"/>
       <c r="C277" s="13"/>
@@ -7811,9 +7837,9 @@
       <c r="H277" s="39"/>
       <c r="I277" s="9"/>
       <c r="J277" s="11"/>
-      <c r="K277" s="49"/>
-    </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K277" s="20"/>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40"/>
       <c r="B278" s="20"/>
       <c r="C278" s="13"/>
@@ -7829,7 +7855,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="49"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40"/>
       <c r="B279" s="20"/>
       <c r="C279" s="13"/>
@@ -7843,9 +7869,9 @@
       <c r="H279" s="39"/>
       <c r="I279" s="9"/>
       <c r="J279" s="11"/>
-      <c r="K279" s="20"/>
-    </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K279" s="49"/>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40"/>
       <c r="B280" s="20"/>
       <c r="C280" s="13"/>
@@ -7859,9 +7885,9 @@
       <c r="H280" s="39"/>
       <c r="I280" s="9"/>
       <c r="J280" s="11"/>
-      <c r="K280" s="49"/>
-    </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K280" s="20"/>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40"/>
       <c r="B281" s="20"/>
       <c r="C281" s="13"/>
@@ -7875,9 +7901,9 @@
       <c r="H281" s="39"/>
       <c r="I281" s="9"/>
       <c r="J281" s="11"/>
-      <c r="K281" s="20"/>
-    </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K281" s="49"/>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40"/>
       <c r="B282" s="20"/>
       <c r="C282" s="13"/>
@@ -7893,7 +7919,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40"/>
       <c r="B283" s="20"/>
       <c r="C283" s="13"/>
@@ -7907,9 +7933,9 @@
       <c r="H283" s="39"/>
       <c r="I283" s="9"/>
       <c r="J283" s="11"/>
-      <c r="K283" s="49"/>
-    </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K283" s="20"/>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40"/>
       <c r="B284" s="20"/>
       <c r="C284" s="13"/>
@@ -7923,9 +7949,9 @@
       <c r="H284" s="39"/>
       <c r="I284" s="9"/>
       <c r="J284" s="11"/>
-      <c r="K284" s="20"/>
-    </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K284" s="49"/>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40"/>
       <c r="B285" s="20"/>
       <c r="C285" s="13"/>
@@ -7939,9 +7965,9 @@
       <c r="H285" s="39"/>
       <c r="I285" s="9"/>
       <c r="J285" s="11"/>
-      <c r="K285" s="49"/>
-    </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K285" s="20"/>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40"/>
       <c r="B286" s="20"/>
       <c r="C286" s="13"/>
@@ -7955,9 +7981,9 @@
       <c r="H286" s="39"/>
       <c r="I286" s="9"/>
       <c r="J286" s="11"/>
-      <c r="K286" s="20"/>
-    </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K286" s="49"/>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40"/>
       <c r="B287" s="20"/>
       <c r="C287" s="13"/>
@@ -7971,9 +7997,9 @@
       <c r="H287" s="39"/>
       <c r="I287" s="9"/>
       <c r="J287" s="11"/>
-      <c r="K287" s="49"/>
-    </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K287" s="20"/>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40"/>
       <c r="B288" s="20"/>
       <c r="C288" s="13"/>
@@ -7989,7 +8015,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="49"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40"/>
       <c r="B289" s="20"/>
       <c r="C289" s="13"/>
@@ -8005,7 +8031,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="49"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40"/>
       <c r="B290" s="20"/>
       <c r="C290" s="13"/>
@@ -8019,9 +8045,9 @@
       <c r="H290" s="39"/>
       <c r="I290" s="9"/>
       <c r="J290" s="11"/>
-      <c r="K290" s="20"/>
-    </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K290" s="49"/>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40"/>
       <c r="B291" s="20"/>
       <c r="C291" s="13"/>
@@ -8035,9 +8061,9 @@
       <c r="H291" s="39"/>
       <c r="I291" s="9"/>
       <c r="J291" s="11"/>
-      <c r="K291" s="49"/>
-    </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K291" s="20"/>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40"/>
       <c r="B292" s="20"/>
       <c r="C292" s="13"/>
@@ -8053,7 +8079,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="49"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40"/>
       <c r="B293" s="20"/>
       <c r="C293" s="13"/>
@@ -8067,9 +8093,9 @@
       <c r="H293" s="39"/>
       <c r="I293" s="9"/>
       <c r="J293" s="11"/>
-      <c r="K293" s="20"/>
-    </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K293" s="49"/>
+    </row>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40"/>
       <c r="B294" s="20"/>
       <c r="C294" s="13"/>
@@ -8085,7 +8111,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40"/>
       <c r="B295" s="20"/>
       <c r="C295" s="13"/>
@@ -8101,7 +8127,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40"/>
       <c r="B296" s="20"/>
       <c r="C296" s="13"/>
@@ -8115,9 +8141,9 @@
       <c r="H296" s="39"/>
       <c r="I296" s="9"/>
       <c r="J296" s="11"/>
-      <c r="K296" s="49"/>
-    </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K296" s="20"/>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40"/>
       <c r="B297" s="20"/>
       <c r="C297" s="13"/>
@@ -8133,7 +8159,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="49"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40"/>
       <c r="B298" s="20"/>
       <c r="C298" s="13"/>
@@ -8147,9 +8173,9 @@
       <c r="H298" s="39"/>
       <c r="I298" s="9"/>
       <c r="J298" s="11"/>
-      <c r="K298" s="20"/>
-    </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K298" s="49"/>
+    </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40"/>
       <c r="B299" s="20"/>
       <c r="C299" s="13"/>
@@ -8165,7 +8191,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40"/>
       <c r="B300" s="20"/>
       <c r="C300" s="13"/>
@@ -8179,9 +8205,9 @@
       <c r="H300" s="39"/>
       <c r="I300" s="9"/>
       <c r="J300" s="11"/>
-      <c r="K300" s="49"/>
-    </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K300" s="20"/>
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40"/>
       <c r="B301" s="20"/>
       <c r="C301" s="13"/>
@@ -8197,7 +8223,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="49"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40"/>
       <c r="B302" s="20"/>
       <c r="C302" s="13"/>
@@ -8211,10 +8237,10 @@
       <c r="H302" s="39"/>
       <c r="I302" s="9"/>
       <c r="J302" s="11"/>
-      <c r="K302" s="20"/>
-    </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A303" s="48"/>
+      <c r="K302" s="49"/>
+    </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A303" s="40"/>
       <c r="B303" s="20"/>
       <c r="C303" s="13"/>
       <c r="D303" s="39"/>
@@ -8229,8 +8255,8 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A304" s="40"/>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A304" s="48"/>
       <c r="B304" s="20"/>
       <c r="C304" s="13"/>
       <c r="D304" s="39"/>
@@ -8245,7 +8271,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40"/>
       <c r="B305" s="20"/>
       <c r="C305" s="13"/>
@@ -8261,7 +8287,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40"/>
       <c r="B306" s="20"/>
       <c r="C306" s="13"/>
@@ -8277,7 +8303,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40"/>
       <c r="B307" s="20"/>
       <c r="C307" s="13"/>
@@ -8293,7 +8319,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40"/>
       <c r="B308" s="20"/>
       <c r="C308" s="13"/>
@@ -8307,9 +8333,9 @@
       <c r="H308" s="39"/>
       <c r="I308" s="9"/>
       <c r="J308" s="11"/>
-      <c r="K308" s="49"/>
-    </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K308" s="20"/>
+    </row>
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40"/>
       <c r="B309" s="20"/>
       <c r="C309" s="13"/>
@@ -8323,9 +8349,9 @@
       <c r="H309" s="39"/>
       <c r="I309" s="9"/>
       <c r="J309" s="11"/>
-      <c r="K309" s="20"/>
-    </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K309" s="49"/>
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40"/>
       <c r="B310" s="20"/>
       <c r="C310" s="13"/>
@@ -8341,7 +8367,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40"/>
       <c r="B311" s="20"/>
       <c r="C311" s="13"/>
@@ -8357,7 +8383,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40"/>
       <c r="B312" s="20"/>
       <c r="C312" s="13"/>
@@ -8371,9 +8397,9 @@
       <c r="H312" s="39"/>
       <c r="I312" s="9"/>
       <c r="J312" s="11"/>
-      <c r="K312" s="49"/>
-    </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K312" s="20"/>
+    </row>
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40"/>
       <c r="B313" s="20"/>
       <c r="C313" s="13"/>
@@ -8387,9 +8413,9 @@
       <c r="H313" s="39"/>
       <c r="I313" s="9"/>
       <c r="J313" s="11"/>
-      <c r="K313" s="20"/>
-    </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K313" s="49"/>
+    </row>
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40"/>
       <c r="B314" s="20"/>
       <c r="C314" s="13"/>
@@ -8403,9 +8429,9 @@
       <c r="H314" s="39"/>
       <c r="I314" s="9"/>
       <c r="J314" s="11"/>
-      <c r="K314" s="49"/>
-    </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K314" s="20"/>
+    </row>
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40"/>
       <c r="B315" s="20"/>
       <c r="C315" s="13"/>
@@ -8419,9 +8445,9 @@
       <c r="H315" s="39"/>
       <c r="I315" s="9"/>
       <c r="J315" s="11"/>
-      <c r="K315" s="20"/>
-    </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K315" s="49"/>
+    </row>
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40"/>
       <c r="B316" s="20"/>
       <c r="C316" s="13"/>
@@ -8435,9 +8461,9 @@
       <c r="H316" s="39"/>
       <c r="I316" s="9"/>
       <c r="J316" s="11"/>
-      <c r="K316" s="49"/>
-    </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K316" s="20"/>
+    </row>
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40"/>
       <c r="B317" s="20"/>
       <c r="C317" s="13"/>
@@ -8453,7 +8479,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="49"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40"/>
       <c r="B318" s="20"/>
       <c r="C318" s="13"/>
@@ -8467,9 +8493,9 @@
       <c r="H318" s="39"/>
       <c r="I318" s="9"/>
       <c r="J318" s="11"/>
-      <c r="K318" s="20"/>
-    </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K318" s="49"/>
+    </row>
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40"/>
       <c r="B319" s="20"/>
       <c r="C319" s="13"/>
@@ -8485,7 +8511,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40"/>
       <c r="B320" s="20"/>
       <c r="C320" s="13"/>
@@ -8499,9 +8525,9 @@
       <c r="H320" s="39"/>
       <c r="I320" s="9"/>
       <c r="J320" s="11"/>
-      <c r="K320" s="49"/>
-    </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K320" s="20"/>
+    </row>
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40"/>
       <c r="B321" s="20"/>
       <c r="C321" s="13"/>
@@ -8517,7 +8543,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="49"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40"/>
       <c r="B322" s="20"/>
       <c r="C322" s="13"/>
@@ -8531,9 +8557,9 @@
       <c r="H322" s="39"/>
       <c r="I322" s="9"/>
       <c r="J322" s="11"/>
-      <c r="K322" s="20"/>
-    </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K322" s="49"/>
+    </row>
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40"/>
       <c r="B323" s="20"/>
       <c r="C323" s="13"/>
@@ -8547,9 +8573,9 @@
       <c r="H323" s="39"/>
       <c r="I323" s="9"/>
       <c r="J323" s="11"/>
-      <c r="K323" s="49"/>
-    </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K323" s="20"/>
+    </row>
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40"/>
       <c r="B324" s="20"/>
       <c r="C324" s="13"/>
@@ -8563,9 +8589,9 @@
       <c r="H324" s="39"/>
       <c r="I324" s="9"/>
       <c r="J324" s="11"/>
-      <c r="K324" s="20"/>
-    </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K324" s="49"/>
+    </row>
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40"/>
       <c r="B325" s="20"/>
       <c r="C325" s="13"/>
@@ -8581,7 +8607,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40"/>
       <c r="B326" s="20"/>
       <c r="C326" s="13"/>
@@ -8595,9 +8621,9 @@
       <c r="H326" s="39"/>
       <c r="I326" s="9"/>
       <c r="J326" s="11"/>
-      <c r="K326" s="49"/>
-    </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K326" s="20"/>
+    </row>
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40"/>
       <c r="B327" s="20"/>
       <c r="C327" s="13"/>
@@ -8613,8 +8639,8 @@
       <c r="J327" s="11"/>
       <c r="K327" s="49"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A328" s="48"/>
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A328" s="40"/>
       <c r="B328" s="20"/>
       <c r="C328" s="13"/>
       <c r="D328" s="39"/>
@@ -8627,10 +8653,10 @@
       <c r="H328" s="39"/>
       <c r="I328" s="9"/>
       <c r="J328" s="11"/>
-      <c r="K328" s="20"/>
-    </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A329" s="40"/>
+      <c r="K328" s="49"/>
+    </row>
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A329" s="48"/>
       <c r="B329" s="20"/>
       <c r="C329" s="13"/>
       <c r="D329" s="39"/>
@@ -8643,9 +8669,9 @@
       <c r="H329" s="39"/>
       <c r="I329" s="9"/>
       <c r="J329" s="11"/>
-      <c r="K329" s="49"/>
-    </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K329" s="20"/>
+    </row>
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40"/>
       <c r="B330" s="20"/>
       <c r="C330" s="13"/>
@@ -8659,9 +8685,9 @@
       <c r="H330" s="39"/>
       <c r="I330" s="9"/>
       <c r="J330" s="11"/>
-      <c r="K330" s="20"/>
-    </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K330" s="49"/>
+    </row>
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40"/>
       <c r="B331" s="20"/>
       <c r="C331" s="13"/>
@@ -8675,9 +8701,9 @@
       <c r="H331" s="39"/>
       <c r="I331" s="9"/>
       <c r="J331" s="11"/>
-      <c r="K331" s="49"/>
-    </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K331" s="20"/>
+    </row>
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40"/>
       <c r="B332" s="20"/>
       <c r="C332" s="13"/>
@@ -8691,9 +8717,9 @@
       <c r="H332" s="39"/>
       <c r="I332" s="9"/>
       <c r="J332" s="11"/>
-      <c r="K332" s="20"/>
-    </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K332" s="49"/>
+    </row>
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40"/>
       <c r="B333" s="20"/>
       <c r="C333" s="13"/>
@@ -8709,7 +8735,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40"/>
       <c r="B334" s="20"/>
       <c r="C334" s="13"/>
@@ -8723,9 +8749,9 @@
       <c r="H334" s="39"/>
       <c r="I334" s="9"/>
       <c r="J334" s="11"/>
-      <c r="K334" s="49"/>
-    </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K334" s="20"/>
+    </row>
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40"/>
       <c r="B335" s="20"/>
       <c r="C335" s="13"/>
@@ -8741,7 +8767,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="49"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40"/>
       <c r="B336" s="20"/>
       <c r="C336" s="13"/>
@@ -8755,9 +8781,9 @@
       <c r="H336" s="39"/>
       <c r="I336" s="9"/>
       <c r="J336" s="11"/>
-      <c r="K336" s="20"/>
-    </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K336" s="49"/>
+    </row>
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40"/>
       <c r="B337" s="20"/>
       <c r="C337" s="13"/>
@@ -8773,7 +8799,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40"/>
       <c r="B338" s="20"/>
       <c r="C338" s="13"/>
@@ -8789,7 +8815,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40"/>
       <c r="B339" s="20"/>
       <c r="C339" s="13"/>
@@ -8805,7 +8831,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40"/>
       <c r="B340" s="20"/>
       <c r="C340" s="13"/>
@@ -8819,9 +8845,9 @@
       <c r="H340" s="39"/>
       <c r="I340" s="9"/>
       <c r="J340" s="11"/>
-      <c r="K340" s="49"/>
-    </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K340" s="20"/>
+    </row>
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40"/>
       <c r="B341" s="20"/>
       <c r="C341" s="13"/>
@@ -8837,7 +8863,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="49"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40"/>
       <c r="B342" s="20"/>
       <c r="C342" s="13"/>
@@ -8851,9 +8877,9 @@
       <c r="H342" s="39"/>
       <c r="I342" s="9"/>
       <c r="J342" s="11"/>
-      <c r="K342" s="20"/>
-    </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K342" s="49"/>
+    </row>
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40"/>
       <c r="B343" s="20"/>
       <c r="C343" s="13"/>
@@ -8869,7 +8895,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40"/>
       <c r="B344" s="20"/>
       <c r="C344" s="13"/>
@@ -8885,7 +8911,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40"/>
       <c r="B345" s="20"/>
       <c r="C345" s="13"/>
@@ -8901,7 +8927,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40"/>
       <c r="B346" s="20"/>
       <c r="C346" s="13"/>
@@ -8915,9 +8941,9 @@
       <c r="H346" s="39"/>
       <c r="I346" s="9"/>
       <c r="J346" s="11"/>
-      <c r="K346" s="49"/>
-    </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K346" s="20"/>
+    </row>
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40"/>
       <c r="B347" s="20"/>
       <c r="C347" s="13"/>
@@ -8931,9 +8957,9 @@
       <c r="H347" s="39"/>
       <c r="I347" s="9"/>
       <c r="J347" s="11"/>
-      <c r="K347" s="20"/>
-    </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K347" s="49"/>
+    </row>
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40"/>
       <c r="B348" s="20"/>
       <c r="C348" s="13"/>
@@ -8949,7 +8975,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40"/>
       <c r="B349" s="20"/>
       <c r="C349" s="13"/>
@@ -8965,7 +8991,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40"/>
       <c r="B350" s="20"/>
       <c r="C350" s="13"/>
@@ -8981,7 +9007,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40"/>
       <c r="B351" s="20"/>
       <c r="C351" s="13"/>
@@ -8997,7 +9023,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40"/>
       <c r="B352" s="20"/>
       <c r="C352" s="13"/>
@@ -9011,9 +9037,9 @@
       <c r="H352" s="39"/>
       <c r="I352" s="9"/>
       <c r="J352" s="11"/>
-      <c r="K352" s="49"/>
-    </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K352" s="20"/>
+    </row>
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40"/>
       <c r="B353" s="20"/>
       <c r="C353" s="13"/>
@@ -9027,9 +9053,9 @@
       <c r="H353" s="39"/>
       <c r="I353" s="9"/>
       <c r="J353" s="11"/>
-      <c r="K353" s="20"/>
-    </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K353" s="49"/>
+    </row>
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40"/>
       <c r="B354" s="20"/>
       <c r="C354" s="13"/>
@@ -9045,7 +9071,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40"/>
       <c r="B355" s="20"/>
       <c r="C355" s="13"/>
@@ -9061,7 +9087,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40"/>
       <c r="B356" s="20"/>
       <c r="C356" s="13"/>
@@ -9075,9 +9101,9 @@
       <c r="H356" s="39"/>
       <c r="I356" s="9"/>
       <c r="J356" s="11"/>
-      <c r="K356" s="49"/>
-    </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K356" s="20"/>
+    </row>
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40"/>
       <c r="B357" s="20"/>
       <c r="C357" s="13"/>
@@ -9091,9 +9117,9 @@
       <c r="H357" s="39"/>
       <c r="I357" s="9"/>
       <c r="J357" s="11"/>
-      <c r="K357" s="20"/>
-    </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K357" s="49"/>
+    </row>
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40"/>
       <c r="B358" s="20"/>
       <c r="C358" s="13"/>
@@ -9109,8 +9135,8 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A359" s="48"/>
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A359" s="40"/>
       <c r="B359" s="20"/>
       <c r="C359" s="13"/>
       <c r="D359" s="39"/>
@@ -9125,8 +9151,8 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A360" s="40"/>
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A360" s="48"/>
       <c r="B360" s="20"/>
       <c r="C360" s="13"/>
       <c r="D360" s="39"/>
@@ -9139,9 +9165,9 @@
       <c r="H360" s="39"/>
       <c r="I360" s="9"/>
       <c r="J360" s="11"/>
-      <c r="K360" s="49"/>
-    </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K360" s="20"/>
+    </row>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40"/>
       <c r="B361" s="20"/>
       <c r="C361" s="13"/>
@@ -9155,9 +9181,9 @@
       <c r="H361" s="39"/>
       <c r="I361" s="9"/>
       <c r="J361" s="11"/>
-      <c r="K361" s="20"/>
-    </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K361" s="49"/>
+    </row>
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40"/>
       <c r="B362" s="20"/>
       <c r="C362" s="13"/>
@@ -9171,9 +9197,9 @@
       <c r="H362" s="39"/>
       <c r="I362" s="9"/>
       <c r="J362" s="11"/>
-      <c r="K362" s="49"/>
-    </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K362" s="20"/>
+    </row>
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40"/>
       <c r="B363" s="20"/>
       <c r="C363" s="13"/>
@@ -9189,7 +9215,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="49"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40"/>
       <c r="B364" s="20"/>
       <c r="C364" s="13"/>
@@ -9203,9 +9229,9 @@
       <c r="H364" s="39"/>
       <c r="I364" s="9"/>
       <c r="J364" s="11"/>
-      <c r="K364" s="20"/>
-    </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K364" s="49"/>
+    </row>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40"/>
       <c r="B365" s="20"/>
       <c r="C365" s="13"/>
@@ -9219,9 +9245,9 @@
       <c r="H365" s="39"/>
       <c r="I365" s="9"/>
       <c r="J365" s="11"/>
-      <c r="K365" s="49"/>
-    </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K365" s="20"/>
+    </row>
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40"/>
       <c r="B366" s="20"/>
       <c r="C366" s="13"/>
@@ -9235,9 +9261,9 @@
       <c r="H366" s="39"/>
       <c r="I366" s="9"/>
       <c r="J366" s="11"/>
-      <c r="K366" s="20"/>
-    </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K366" s="49"/>
+    </row>
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40"/>
       <c r="B367" s="20"/>
       <c r="C367" s="13"/>
@@ -9253,7 +9279,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40"/>
       <c r="B368" s="20"/>
       <c r="C368" s="13"/>
@@ -9269,7 +9295,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40"/>
       <c r="B369" s="20"/>
       <c r="C369" s="13"/>
@@ -9285,7 +9311,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40"/>
       <c r="B370" s="20"/>
       <c r="C370" s="13"/>
@@ -9301,7 +9327,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40"/>
       <c r="B371" s="20"/>
       <c r="C371" s="13"/>
@@ -9317,7 +9343,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40"/>
       <c r="B372" s="20"/>
       <c r="C372" s="13"/>
@@ -9333,7 +9359,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40"/>
       <c r="B373" s="20"/>
       <c r="C373" s="13"/>
@@ -9349,7 +9375,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40"/>
       <c r="B374" s="20"/>
       <c r="C374" s="13"/>
@@ -9365,7 +9391,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40"/>
       <c r="B375" s="20"/>
       <c r="C375" s="13"/>
@@ -9381,7 +9407,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40"/>
       <c r="B376" s="20"/>
       <c r="C376" s="13"/>
@@ -9397,7 +9423,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40"/>
       <c r="B377" s="20"/>
       <c r="C377" s="13"/>
@@ -9413,8 +9439,8 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A378" s="48"/>
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A378" s="40"/>
       <c r="B378" s="20"/>
       <c r="C378" s="13"/>
       <c r="D378" s="39"/>
@@ -9429,8 +9455,8 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A379" s="40"/>
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A379" s="48"/>
       <c r="B379" s="20"/>
       <c r="C379" s="13"/>
       <c r="D379" s="39"/>
@@ -9445,7 +9471,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40"/>
       <c r="B380" s="20"/>
       <c r="C380" s="13"/>
@@ -9461,7 +9487,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40"/>
       <c r="B381" s="20"/>
       <c r="C381" s="13"/>
@@ -9477,7 +9503,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40"/>
       <c r="B382" s="20"/>
       <c r="C382" s="13"/>
@@ -9493,7 +9519,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40"/>
       <c r="B383" s="20"/>
       <c r="C383" s="13"/>
@@ -9509,7 +9535,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40"/>
       <c r="B384" s="20"/>
       <c r="C384" s="13"/>
@@ -9525,7 +9551,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40"/>
       <c r="B385" s="20"/>
       <c r="C385" s="13"/>
@@ -9541,7 +9567,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40"/>
       <c r="B386" s="20"/>
       <c r="C386" s="13"/>
@@ -9557,7 +9583,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40"/>
       <c r="B387" s="20"/>
       <c r="C387" s="13"/>
@@ -9573,7 +9599,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40"/>
       <c r="B388" s="20"/>
       <c r="C388" s="13"/>
@@ -9589,7 +9615,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40"/>
       <c r="B389" s="20"/>
       <c r="C389" s="13"/>
@@ -9605,7 +9631,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40"/>
       <c r="B390" s="20"/>
       <c r="C390" s="13"/>
@@ -9621,8 +9647,8 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A391" s="48"/>
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A391" s="40"/>
       <c r="B391" s="20"/>
       <c r="C391" s="13"/>
       <c r="D391" s="39"/>
@@ -9637,8 +9663,8 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A392" s="40"/>
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A392" s="48"/>
       <c r="B392" s="20"/>
       <c r="C392" s="13"/>
       <c r="D392" s="39"/>
@@ -9653,7 +9679,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40"/>
       <c r="B393" s="20"/>
       <c r="C393" s="13"/>
@@ -9669,7 +9695,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40"/>
       <c r="B394" s="20"/>
       <c r="C394" s="13"/>
@@ -9685,7 +9711,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40"/>
       <c r="B395" s="20"/>
       <c r="C395" s="13"/>
@@ -9701,7 +9727,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40"/>
       <c r="B396" s="20"/>
       <c r="C396" s="13"/>
@@ -9717,7 +9743,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40"/>
       <c r="B397" s="20"/>
       <c r="C397" s="13"/>
@@ -9733,7 +9759,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40"/>
       <c r="B398" s="20"/>
       <c r="C398" s="13"/>
@@ -9749,7 +9775,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40"/>
       <c r="B399" s="20"/>
       <c r="C399" s="13"/>
@@ -9765,7 +9791,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40"/>
       <c r="B400" s="20"/>
       <c r="C400" s="13"/>
@@ -9781,7 +9807,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40"/>
       <c r="B401" s="20"/>
       <c r="C401" s="13"/>
@@ -9797,7 +9823,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40"/>
       <c r="B402" s="20"/>
       <c r="C402" s="13"/>
@@ -9813,7 +9839,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40"/>
       <c r="B403" s="20"/>
       <c r="C403" s="13"/>
@@ -9829,8 +9855,8 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A404" s="48"/>
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A404" s="40"/>
       <c r="B404" s="20"/>
       <c r="C404" s="13"/>
       <c r="D404" s="39"/>
@@ -9845,8 +9871,8 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A405" s="40"/>
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A405" s="48"/>
       <c r="B405" s="20"/>
       <c r="C405" s="13"/>
       <c r="D405" s="39"/>
@@ -9861,7 +9887,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40"/>
       <c r="B406" s="20"/>
       <c r="C406" s="13"/>
@@ -9877,7 +9903,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40"/>
       <c r="B407" s="20"/>
       <c r="C407" s="13"/>
@@ -9893,7 +9919,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40"/>
       <c r="B408" s="20"/>
       <c r="C408" s="13"/>
@@ -9909,7 +9935,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40"/>
       <c r="B409" s="20"/>
       <c r="C409" s="13"/>
@@ -9925,7 +9951,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40"/>
       <c r="B410" s="20"/>
       <c r="C410" s="13"/>
@@ -9941,7 +9967,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40"/>
       <c r="B411" s="20"/>
       <c r="C411" s="13"/>
@@ -9957,7 +9983,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40"/>
       <c r="B412" s="20"/>
       <c r="C412" s="13"/>
@@ -9973,7 +9999,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40"/>
       <c r="B413" s="20"/>
       <c r="C413" s="13"/>
@@ -9989,7 +10015,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40"/>
       <c r="B414" s="20"/>
       <c r="C414" s="13"/>
@@ -10005,7 +10031,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40"/>
       <c r="B415" s="20"/>
       <c r="C415" s="13"/>
@@ -10021,7 +10047,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40"/>
       <c r="B416" s="20"/>
       <c r="C416" s="13"/>
@@ -10037,8 +10063,8 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A417" s="48"/>
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A417" s="40"/>
       <c r="B417" s="20"/>
       <c r="C417" s="13"/>
       <c r="D417" s="39"/>
@@ -10053,8 +10079,8 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A418" s="40"/>
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A418" s="48"/>
       <c r="B418" s="20"/>
       <c r="C418" s="13"/>
       <c r="D418" s="39"/>
@@ -10069,7 +10095,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40"/>
       <c r="B419" s="20"/>
       <c r="C419" s="13"/>
@@ -10085,7 +10111,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40"/>
       <c r="B420" s="20"/>
       <c r="C420" s="13"/>
@@ -10101,7 +10127,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40"/>
       <c r="B421" s="20"/>
       <c r="C421" s="13"/>
@@ -10117,7 +10143,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40"/>
       <c r="B422" s="20"/>
       <c r="C422" s="13"/>
@@ -10133,7 +10159,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40"/>
       <c r="B423" s="20"/>
       <c r="C423" s="13"/>
@@ -10149,7 +10175,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40"/>
       <c r="B424" s="20"/>
       <c r="C424" s="13"/>
@@ -10165,7 +10191,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40"/>
       <c r="B425" s="20"/>
       <c r="C425" s="13"/>
@@ -10181,7 +10207,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40"/>
       <c r="B426" s="20"/>
       <c r="C426" s="13"/>
@@ -10197,7 +10223,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40"/>
       <c r="B427" s="20"/>
       <c r="C427" s="13"/>
@@ -10213,7 +10239,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40"/>
       <c r="B428" s="20"/>
       <c r="C428" s="13"/>
@@ -10229,7 +10255,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40"/>
       <c r="B429" s="20"/>
       <c r="C429" s="13"/>
@@ -10245,8 +10271,8 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A430" s="48"/>
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A430" s="40"/>
       <c r="B430" s="20"/>
       <c r="C430" s="13"/>
       <c r="D430" s="39"/>
@@ -10261,8 +10287,8 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A431" s="40"/>
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A431" s="48"/>
       <c r="B431" s="20"/>
       <c r="C431" s="13"/>
       <c r="D431" s="39"/>
@@ -10277,7 +10303,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40"/>
       <c r="B432" s="20"/>
       <c r="C432" s="13"/>
@@ -10293,7 +10319,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40"/>
       <c r="B433" s="20"/>
       <c r="C433" s="13"/>
@@ -10309,7 +10335,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40"/>
       <c r="B434" s="20"/>
       <c r="C434" s="13"/>
@@ -10325,7 +10351,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40"/>
       <c r="B435" s="20"/>
       <c r="C435" s="13"/>
@@ -10341,7 +10367,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40"/>
       <c r="B436" s="20"/>
       <c r="C436" s="13"/>
@@ -10357,7 +10383,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40"/>
       <c r="B437" s="20"/>
       <c r="C437" s="13"/>
@@ -10373,7 +10399,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40"/>
       <c r="B438" s="20"/>
       <c r="C438" s="13"/>
@@ -10389,7 +10415,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40"/>
       <c r="B439" s="20"/>
       <c r="C439" s="13"/>
@@ -10405,7 +10431,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40"/>
       <c r="B440" s="20"/>
       <c r="C440" s="13"/>
@@ -10421,7 +10447,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40"/>
       <c r="B441" s="20"/>
       <c r="C441" s="13"/>
@@ -10437,7 +10463,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40"/>
       <c r="B442" s="20"/>
       <c r="C442" s="13"/>
@@ -10453,8 +10479,8 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A443" s="48"/>
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A443" s="40"/>
       <c r="B443" s="20"/>
       <c r="C443" s="13"/>
       <c r="D443" s="39"/>
@@ -10469,8 +10495,8 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A444" s="40"/>
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A444" s="48"/>
       <c r="B444" s="20"/>
       <c r="C444" s="13"/>
       <c r="D444" s="39"/>
@@ -10485,7 +10511,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40"/>
       <c r="B445" s="20"/>
       <c r="C445" s="13"/>
@@ -10501,7 +10527,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40"/>
       <c r="B446" s="20"/>
       <c r="C446" s="13"/>
@@ -10517,7 +10543,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40"/>
       <c r="B447" s="20"/>
       <c r="C447" s="13"/>
@@ -10533,7 +10559,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40"/>
       <c r="B448" s="20"/>
       <c r="C448" s="13"/>
@@ -10549,7 +10575,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40"/>
       <c r="B449" s="20"/>
       <c r="C449" s="13"/>
@@ -10565,7 +10591,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40"/>
       <c r="B450" s="20"/>
       <c r="C450" s="13"/>
@@ -10581,7 +10607,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40"/>
       <c r="B451" s="20"/>
       <c r="C451" s="13"/>
@@ -10597,7 +10623,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40"/>
       <c r="B452" s="20"/>
       <c r="C452" s="13"/>
@@ -10613,7 +10639,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40"/>
       <c r="B453" s="20"/>
       <c r="C453" s="13"/>
@@ -10629,7 +10655,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40"/>
       <c r="B454" s="20"/>
       <c r="C454" s="13"/>
@@ -10645,7 +10671,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40"/>
       <c r="B455" s="20"/>
       <c r="C455" s="13"/>
@@ -10661,7 +10687,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40"/>
       <c r="B456" s="20"/>
       <c r="C456" s="13"/>
@@ -10677,7 +10703,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40"/>
       <c r="B457" s="20"/>
       <c r="C457" s="13"/>
@@ -10693,7 +10719,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40"/>
       <c r="B458" s="20"/>
       <c r="C458" s="13"/>
@@ -10709,7 +10735,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40"/>
       <c r="B459" s="20"/>
       <c r="C459" s="13"/>
@@ -10725,7 +10751,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40"/>
       <c r="B460" s="20"/>
       <c r="C460" s="13"/>
@@ -10741,7 +10767,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40"/>
       <c r="B461" s="20"/>
       <c r="C461" s="13"/>
@@ -10757,7 +10783,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40"/>
       <c r="B462" s="20"/>
       <c r="C462" s="13"/>
@@ -10773,7 +10799,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40"/>
       <c r="B463" s="20"/>
       <c r="C463" s="13"/>
@@ -10789,7 +10815,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40"/>
       <c r="B464" s="20"/>
       <c r="C464" s="13"/>
@@ -10805,7 +10831,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40"/>
       <c r="B465" s="20"/>
       <c r="C465" s="13"/>
@@ -10821,7 +10847,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40"/>
       <c r="B466" s="20"/>
       <c r="C466" s="13"/>
@@ -10837,7 +10863,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40"/>
       <c r="B467" s="20"/>
       <c r="C467" s="13"/>
@@ -10853,7 +10879,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40"/>
       <c r="B468" s="20"/>
       <c r="C468" s="13"/>
@@ -10869,7 +10895,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40"/>
       <c r="B469" s="20"/>
       <c r="C469" s="13"/>
@@ -10885,7 +10911,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40"/>
       <c r="B470" s="20"/>
       <c r="C470" s="13"/>
@@ -10901,7 +10927,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40"/>
       <c r="B471" s="20"/>
       <c r="C471" s="13"/>
@@ -10917,7 +10943,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40"/>
       <c r="B472" s="20"/>
       <c r="C472" s="13"/>
@@ -10933,7 +10959,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40"/>
       <c r="B473" s="20"/>
       <c r="C473" s="13"/>
@@ -10949,7 +10975,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40"/>
       <c r="B474" s="20"/>
       <c r="C474" s="13"/>
@@ -10965,7 +10991,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40"/>
       <c r="B475" s="20"/>
       <c r="C475" s="13"/>
@@ -10981,7 +11007,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40"/>
       <c r="B476" s="20"/>
       <c r="C476" s="13"/>
@@ -10997,7 +11023,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40"/>
       <c r="B477" s="20"/>
       <c r="C477" s="13"/>
@@ -11013,7 +11039,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40"/>
       <c r="B478" s="20"/>
       <c r="C478" s="13"/>
@@ -11029,7 +11055,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40"/>
       <c r="B479" s="20"/>
       <c r="C479" s="13"/>
@@ -11045,7 +11071,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40"/>
       <c r="B480" s="20"/>
       <c r="C480" s="13"/>
@@ -11061,7 +11087,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40"/>
       <c r="B481" s="20"/>
       <c r="C481" s="13"/>
@@ -11077,7 +11103,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40"/>
       <c r="B482" s="20"/>
       <c r="C482" s="13"/>
@@ -11093,7 +11119,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40"/>
       <c r="B483" s="20"/>
       <c r="C483" s="13"/>
@@ -11109,7 +11135,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40"/>
       <c r="B484" s="20"/>
       <c r="C484" s="13"/>
@@ -11125,7 +11151,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40"/>
       <c r="B485" s="20"/>
       <c r="C485" s="13"/>
@@ -11141,7 +11167,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40"/>
       <c r="B486" s="20"/>
       <c r="C486" s="13"/>
@@ -11157,7 +11183,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40"/>
       <c r="B487" s="20"/>
       <c r="C487" s="13"/>
@@ -11173,7 +11199,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40"/>
       <c r="B488" s="20"/>
       <c r="C488" s="13"/>
@@ -11189,7 +11215,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40"/>
       <c r="B489" s="20"/>
       <c r="C489" s="13"/>
@@ -11205,7 +11231,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40"/>
       <c r="B490" s="20"/>
       <c r="C490" s="13"/>
@@ -11221,7 +11247,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40"/>
       <c r="B491" s="20"/>
       <c r="C491" s="13"/>
@@ -11237,7 +11263,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40"/>
       <c r="B492" s="20"/>
       <c r="C492" s="13"/>
@@ -11253,7 +11279,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40"/>
       <c r="B493" s="20"/>
       <c r="C493" s="13"/>
@@ -11269,7 +11295,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40"/>
       <c r="B494" s="20"/>
       <c r="C494" s="13"/>
@@ -11285,7 +11311,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40"/>
       <c r="B495" s="20"/>
       <c r="C495" s="13"/>
@@ -11301,7 +11327,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40"/>
       <c r="B496" s="20"/>
       <c r="C496" s="13"/>
@@ -11317,7 +11343,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40"/>
       <c r="B497" s="20"/>
       <c r="C497" s="13"/>
@@ -11333,7 +11359,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40"/>
       <c r="B498" s="20"/>
       <c r="C498" s="13"/>
@@ -11349,7 +11375,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40"/>
       <c r="B499" s="20"/>
       <c r="C499" s="13"/>
@@ -11365,7 +11391,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40"/>
       <c r="B500" s="20"/>
       <c r="C500" s="13"/>
@@ -11381,7 +11407,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40"/>
       <c r="B501" s="20"/>
       <c r="C501" s="13"/>
@@ -11397,7 +11423,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40"/>
       <c r="B502" s="20"/>
       <c r="C502" s="13"/>
@@ -11413,7 +11439,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40"/>
       <c r="B503" s="20"/>
       <c r="C503" s="13"/>
@@ -11429,7 +11455,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40"/>
       <c r="B504" s="20"/>
       <c r="C504" s="13"/>
@@ -11445,7 +11471,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40"/>
       <c r="B505" s="20"/>
       <c r="C505" s="13"/>
@@ -11461,7 +11487,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40"/>
       <c r="B506" s="20"/>
       <c r="C506" s="13"/>
@@ -11477,7 +11503,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40"/>
       <c r="B507" s="20"/>
       <c r="C507" s="13"/>
@@ -11493,7 +11519,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40"/>
       <c r="B508" s="20"/>
       <c r="C508" s="13"/>
@@ -11509,7 +11535,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40"/>
       <c r="B509" s="20"/>
       <c r="C509" s="13"/>
@@ -11525,7 +11551,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40"/>
       <c r="B510" s="20"/>
       <c r="C510" s="13"/>
@@ -11541,21 +11567,37 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A511" s="41"/>
-      <c r="B511" s="15"/>
-      <c r="C511" s="42"/>
-      <c r="D511" s="43"/>
-      <c r="E511" s="51"/>
-      <c r="F511" s="15"/>
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A511" s="40"/>
+      <c r="B511" s="20"/>
+      <c r="C511" s="13"/>
+      <c r="D511" s="39"/>
+      <c r="E511" s="9"/>
+      <c r="F511" s="20"/>
       <c r="G511" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H511" s="43"/>
-      <c r="I511" s="51"/>
-      <c r="J511" s="12"/>
-      <c r="K511" s="15"/>
+      <c r="H511" s="39"/>
+      <c r="I511" s="9"/>
+      <c r="J511" s="11"/>
+      <c r="K511" s="20"/>
+    </row>
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A512" s="41"/>
+      <c r="B512" s="15"/>
+      <c r="C512" s="42"/>
+      <c r="D512" s="43"/>
+      <c r="E512" s="51"/>
+      <c r="F512" s="15"/>
+      <c r="G512" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H512" s="43"/>
+      <c r="I512" s="51"/>
+      <c r="J512" s="12"/>
+      <c r="K512" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -11572,10 +11614,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11598,7 +11640,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -11606,21 +11648,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="63" t="s">
         <v>32</v>
       </c>
@@ -11633,7 +11675,7 @@
       <c r="K1" s="64"/>
       <c r="L1" s="64"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -11662,7 +11704,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
@@ -11682,17 +11724,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -11713,7 +11755,7 @@
       <c r="K6" s="64"/>
       <c r="L6" s="64"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -11740,7 +11782,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -11766,7 +11808,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -11792,7 +11834,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -11818,7 +11860,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -11844,7 +11886,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -11870,7 +11912,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -11896,7 +11938,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -11922,7 +11964,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -11942,7 +11984,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -11962,7 +12004,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -11982,7 +12024,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -12003,7 +12045,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -12024,7 +12066,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -12045,7 +12087,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -12066,7 +12108,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -12087,7 +12129,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -12108,7 +12150,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -12129,7 +12171,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -12150,7 +12192,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -12171,7 +12213,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -12192,7 +12234,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -12213,7 +12255,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -12234,7 +12276,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -12255,7 +12297,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -12276,7 +12318,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -12297,7 +12339,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -12318,7 +12360,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -12339,7 +12381,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -12360,7 +12402,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -12381,7 +12423,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -12402,7 +12444,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -12411,7 +12453,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -12420,7 +12462,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -12429,7 +12471,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -12438,7 +12480,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -12447,7 +12489,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -12456,7 +12498,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -12465,7 +12507,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -12474,7 +12516,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -12483,7 +12525,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -12492,7 +12534,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -12501,7 +12543,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -12510,7 +12552,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -12519,7 +12561,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -12528,7 +12570,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -12537,7 +12579,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -12546,7 +12588,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -12555,7 +12597,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -12564,7 +12606,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -12573,7 +12615,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -12582,7 +12624,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -12591,7 +12633,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -12600,7 +12642,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -12609,7 +12651,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -12618,7 +12660,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -12627,7 +12669,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -12636,7 +12678,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -12645,7 +12687,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -12654,7 +12696,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -12663,7 +12705,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/ONT/LAROZA, KIM VINCENT L..xlsx
+++ b/REGULAR/ONT/LAROZA, KIM VINCENT L..xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="67">
   <si>
     <t>PERIOD</t>
   </si>
@@ -229,6 +229,12 @@
   </si>
   <si>
     <t>1/16,17,24/2024</t>
+  </si>
+  <si>
+    <t>QL(6-0-0)</t>
+  </si>
+  <si>
+    <t>COVID 12/25-30/2023</t>
   </si>
 </sst>
 </file>
@@ -1109,7 +1115,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1152,7 +1158,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1216,7 +1222,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1276,7 +1282,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1342,7 +1348,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1405,7 +1411,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1503,7 +1509,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1562,7 +1568,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1627,7 +1633,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1670,7 +1676,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1745,7 +1751,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1931,7 +1937,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1997,7 +2003,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2055,7 +2061,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2121,7 +2127,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2177,7 +2183,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2252,7 +2258,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2295,7 +2301,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2361,7 +2367,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2417,7 +2423,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2515,7 +2521,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2578,7 +2584,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2644,7 +2650,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K512" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K513" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3022,12 +3028,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K512"/>
+  <dimension ref="A2:K513"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A65" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A71" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="K84" sqref="K84"/>
+      <selection pane="bottomLeft" activeCell="K92" sqref="K92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4748,10 +4754,10 @@
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="40">
-        <v>45351</v>
-      </c>
-      <c r="B85" s="20"/>
+      <c r="A85" s="40"/>
+      <c r="B85" s="20" t="s">
+        <v>65</v>
+      </c>
       <c r="C85" s="13"/>
       <c r="D85" s="39"/>
       <c r="E85" s="9"/>
@@ -4763,11 +4769,13 @@
       <c r="H85" s="39"/>
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
-      <c r="K85" s="20"/>
+      <c r="K85" s="49" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
-        <v>45382</v>
+        <v>45351</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4784,7 +4792,9 @@
       <c r="K86" s="20"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="40"/>
+      <c r="A87" s="40">
+        <v>45382</v>
+      </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
       <c r="D87" s="39"/>
@@ -4797,7 +4807,7 @@
       <c r="H87" s="39"/>
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
-      <c r="K87" s="49"/>
+      <c r="K87" s="20"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
@@ -4813,7 +4823,7 @@
       <c r="H88" s="39"/>
       <c r="I88" s="9"/>
       <c r="J88" s="11"/>
-      <c r="K88" s="20"/>
+      <c r="K88" s="49"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
@@ -4829,7 +4839,7 @@
       <c r="H89" s="39"/>
       <c r="I89" s="9"/>
       <c r="J89" s="11"/>
-      <c r="K89" s="49"/>
+      <c r="K89" s="20"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
@@ -4845,7 +4855,7 @@
       <c r="H90" s="39"/>
       <c r="I90" s="9"/>
       <c r="J90" s="11"/>
-      <c r="K90" s="20"/>
+      <c r="K90" s="49"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
@@ -4877,7 +4887,7 @@
       <c r="H92" s="39"/>
       <c r="I92" s="9"/>
       <c r="J92" s="11"/>
-      <c r="K92" s="49"/>
+      <c r="K92" s="20"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
@@ -4925,7 +4935,7 @@
       <c r="H95" s="39"/>
       <c r="I95" s="9"/>
       <c r="J95" s="11"/>
-      <c r="K95" s="20"/>
+      <c r="K95" s="49"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
@@ -4957,7 +4967,7 @@
       <c r="H97" s="39"/>
       <c r="I97" s="9"/>
       <c r="J97" s="11"/>
-      <c r="K97" s="49"/>
+      <c r="K97" s="20"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
@@ -4989,7 +4999,7 @@
       <c r="H99" s="39"/>
       <c r="I99" s="9"/>
       <c r="J99" s="11"/>
-      <c r="K99" s="20"/>
+      <c r="K99" s="49"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
@@ -5005,10 +5015,10 @@
       <c r="H100" s="39"/>
       <c r="I100" s="9"/>
       <c r="J100" s="11"/>
-      <c r="K100" s="49"/>
+      <c r="K100" s="20"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="48"/>
+      <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
       <c r="D101" s="39"/>
@@ -5024,7 +5034,7 @@
       <c r="K101" s="49"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="40"/>
+      <c r="A102" s="48"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
       <c r="D102" s="39"/>
@@ -5037,7 +5047,7 @@
       <c r="H102" s="39"/>
       <c r="I102" s="9"/>
       <c r="J102" s="11"/>
-      <c r="K102" s="20"/>
+      <c r="K102" s="49"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
@@ -5101,7 +5111,7 @@
       <c r="H106" s="39"/>
       <c r="I106" s="9"/>
       <c r="J106" s="11"/>
-      <c r="K106" s="49"/>
+      <c r="K106" s="20"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
@@ -5117,7 +5127,7 @@
       <c r="H107" s="39"/>
       <c r="I107" s="9"/>
       <c r="J107" s="11"/>
-      <c r="K107" s="20"/>
+      <c r="K107" s="49"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
@@ -5181,7 +5191,7 @@
       <c r="H111" s="39"/>
       <c r="I111" s="9"/>
       <c r="J111" s="11"/>
-      <c r="K111" s="49"/>
+      <c r="K111" s="20"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
@@ -5213,7 +5223,7 @@
       <c r="H113" s="39"/>
       <c r="I113" s="9"/>
       <c r="J113" s="11"/>
-      <c r="K113" s="20"/>
+      <c r="K113" s="49"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
@@ -5277,7 +5287,7 @@
       <c r="H117" s="39"/>
       <c r="I117" s="9"/>
       <c r="J117" s="11"/>
-      <c r="K117" s="49"/>
+      <c r="K117" s="20"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
@@ -5309,10 +5319,10 @@
       <c r="H119" s="39"/>
       <c r="I119" s="9"/>
       <c r="J119" s="11"/>
-      <c r="K119" s="20"/>
+      <c r="K119" s="49"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="48"/>
+      <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
       <c r="D120" s="39"/>
@@ -5328,7 +5338,7 @@
       <c r="K120" s="20"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="40"/>
+      <c r="A121" s="48"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
       <c r="D121" s="39"/>
@@ -5437,7 +5447,7 @@
       <c r="H127" s="39"/>
       <c r="I127" s="9"/>
       <c r="J127" s="11"/>
-      <c r="K127" s="49"/>
+      <c r="K127" s="20"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
@@ -5453,7 +5463,7 @@
       <c r="H128" s="39"/>
       <c r="I128" s="9"/>
       <c r="J128" s="11"/>
-      <c r="K128" s="20"/>
+      <c r="K128" s="49"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
@@ -5520,7 +5530,7 @@
       <c r="K132" s="20"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="48"/>
+      <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
       <c r="D133" s="39"/>
@@ -5536,7 +5546,7 @@
       <c r="K133" s="20"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="40"/>
+      <c r="A134" s="48"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
       <c r="D134" s="39"/>
@@ -5629,7 +5639,7 @@
       <c r="H139" s="39"/>
       <c r="I139" s="9"/>
       <c r="J139" s="11"/>
-      <c r="K139" s="49"/>
+      <c r="K139" s="20"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40"/>
@@ -5645,7 +5655,7 @@
       <c r="H140" s="39"/>
       <c r="I140" s="9"/>
       <c r="J140" s="11"/>
-      <c r="K140" s="20"/>
+      <c r="K140" s="49"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40"/>
@@ -5693,7 +5703,7 @@
       <c r="H143" s="39"/>
       <c r="I143" s="9"/>
       <c r="J143" s="11"/>
-      <c r="K143" s="49"/>
+      <c r="K143" s="20"/>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40"/>
@@ -5725,7 +5735,7 @@
       <c r="H145" s="39"/>
       <c r="I145" s="9"/>
       <c r="J145" s="11"/>
-      <c r="K145" s="20"/>
+      <c r="K145" s="49"/>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40"/>
@@ -5741,7 +5751,7 @@
       <c r="H146" s="39"/>
       <c r="I146" s="9"/>
       <c r="J146" s="11"/>
-      <c r="K146" s="49"/>
+      <c r="K146" s="20"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40"/>
@@ -5821,10 +5831,10 @@
       <c r="H151" s="39"/>
       <c r="I151" s="9"/>
       <c r="J151" s="11"/>
-      <c r="K151" s="20"/>
+      <c r="K151" s="49"/>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A152" s="48"/>
+      <c r="A152" s="40"/>
       <c r="B152" s="20"/>
       <c r="C152" s="13"/>
       <c r="D152" s="39"/>
@@ -5840,7 +5850,7 @@
       <c r="K152" s="20"/>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A153" s="40"/>
+      <c r="A153" s="48"/>
       <c r="B153" s="20"/>
       <c r="C153" s="13"/>
       <c r="D153" s="39"/>
@@ -6032,7 +6042,7 @@
       <c r="K164" s="20"/>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A165" s="48"/>
+      <c r="A165" s="40"/>
       <c r="B165" s="20"/>
       <c r="C165" s="13"/>
       <c r="D165" s="39"/>
@@ -6048,7 +6058,7 @@
       <c r="K165" s="20"/>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A166" s="40"/>
+      <c r="A166" s="48"/>
       <c r="B166" s="20"/>
       <c r="C166" s="13"/>
       <c r="D166" s="39"/>
@@ -6109,7 +6119,7 @@
       <c r="H169" s="39"/>
       <c r="I169" s="9"/>
       <c r="J169" s="11"/>
-      <c r="K169" s="49"/>
+      <c r="K169" s="20"/>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40"/>
@@ -6125,7 +6135,7 @@
       <c r="H170" s="39"/>
       <c r="I170" s="9"/>
       <c r="J170" s="11"/>
-      <c r="K170" s="20"/>
+      <c r="K170" s="49"/>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40"/>
@@ -6173,7 +6183,7 @@
       <c r="H173" s="39"/>
       <c r="I173" s="9"/>
       <c r="J173" s="11"/>
-      <c r="K173" s="49"/>
+      <c r="K173" s="20"/>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40"/>
@@ -6189,7 +6199,7 @@
       <c r="H174" s="39"/>
       <c r="I174" s="9"/>
       <c r="J174" s="11"/>
-      <c r="K174" s="20"/>
+      <c r="K174" s="49"/>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40"/>
@@ -6205,7 +6215,7 @@
       <c r="H175" s="39"/>
       <c r="I175" s="9"/>
       <c r="J175" s="11"/>
-      <c r="K175" s="49"/>
+      <c r="K175" s="20"/>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40"/>
@@ -6221,7 +6231,7 @@
       <c r="H176" s="39"/>
       <c r="I176" s="9"/>
       <c r="J176" s="11"/>
-      <c r="K176" s="20"/>
+      <c r="K176" s="49"/>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40"/>
@@ -6253,7 +6263,7 @@
       <c r="H178" s="39"/>
       <c r="I178" s="9"/>
       <c r="J178" s="11"/>
-      <c r="K178" s="49"/>
+      <c r="K178" s="20"/>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40"/>
@@ -6317,7 +6327,7 @@
       <c r="H182" s="39"/>
       <c r="I182" s="9"/>
       <c r="J182" s="11"/>
-      <c r="K182" s="20"/>
+      <c r="K182" s="49"/>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40"/>
@@ -6333,10 +6343,10 @@
       <c r="H183" s="39"/>
       <c r="I183" s="9"/>
       <c r="J183" s="11"/>
-      <c r="K183" s="49"/>
+      <c r="K183" s="20"/>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A184" s="48"/>
+      <c r="A184" s="40"/>
       <c r="B184" s="20"/>
       <c r="C184" s="13"/>
       <c r="D184" s="39"/>
@@ -6352,7 +6362,7 @@
       <c r="K184" s="49"/>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A185" s="40"/>
+      <c r="A185" s="48"/>
       <c r="B185" s="20"/>
       <c r="C185" s="13"/>
       <c r="D185" s="39"/>
@@ -6381,7 +6391,7 @@
       <c r="H186" s="39"/>
       <c r="I186" s="9"/>
       <c r="J186" s="11"/>
-      <c r="K186" s="20"/>
+      <c r="K186" s="49"/>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40"/>
@@ -6413,7 +6423,7 @@
       <c r="H188" s="39"/>
       <c r="I188" s="9"/>
       <c r="J188" s="11"/>
-      <c r="K188" s="49"/>
+      <c r="K188" s="20"/>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40"/>
@@ -6445,7 +6455,7 @@
       <c r="H190" s="39"/>
       <c r="I190" s="9"/>
       <c r="J190" s="11"/>
-      <c r="K190" s="20"/>
+      <c r="K190" s="49"/>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40"/>
@@ -6493,7 +6503,7 @@
       <c r="H193" s="39"/>
       <c r="I193" s="9"/>
       <c r="J193" s="11"/>
-      <c r="K193" s="49"/>
+      <c r="K193" s="20"/>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40"/>
@@ -6509,7 +6519,7 @@
       <c r="H194" s="39"/>
       <c r="I194" s="9"/>
       <c r="J194" s="11"/>
-      <c r="K194" s="20"/>
+      <c r="K194" s="49"/>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40"/>
@@ -6525,7 +6535,7 @@
       <c r="H195" s="39"/>
       <c r="I195" s="9"/>
       <c r="J195" s="11"/>
-      <c r="K195" s="49"/>
+      <c r="K195" s="20"/>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40"/>
@@ -6541,23 +6551,23 @@
       <c r="H196" s="39"/>
       <c r="I196" s="9"/>
       <c r="J196" s="11"/>
-      <c r="K196" s="20"/>
+      <c r="K196" s="49"/>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40"/>
-      <c r="B197" s="15"/>
+      <c r="B197" s="20"/>
       <c r="C197" s="13"/>
-      <c r="D197" s="43"/>
+      <c r="D197" s="39"/>
       <c r="E197" s="9"/>
-      <c r="F197" s="15"/>
+      <c r="F197" s="20"/>
       <c r="G197" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H197" s="39"/>
       <c r="I197" s="9"/>
-      <c r="J197" s="12"/>
-      <c r="K197" s="50"/>
+      <c r="J197" s="11"/>
+      <c r="K197" s="20"/>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40"/>
@@ -6573,23 +6583,23 @@
       <c r="H198" s="39"/>
       <c r="I198" s="9"/>
       <c r="J198" s="12"/>
-      <c r="K198" s="15"/>
+      <c r="K198" s="50"/>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40"/>
-      <c r="B199" s="20"/>
+      <c r="B199" s="15"/>
       <c r="C199" s="13"/>
-      <c r="D199" s="39"/>
+      <c r="D199" s="43"/>
       <c r="E199" s="9"/>
-      <c r="F199" s="20"/>
+      <c r="F199" s="15"/>
       <c r="G199" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H199" s="39"/>
       <c r="I199" s="9"/>
-      <c r="J199" s="11"/>
-      <c r="K199" s="49"/>
+      <c r="J199" s="12"/>
+      <c r="K199" s="15"/>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40"/>
@@ -6605,7 +6615,7 @@
       <c r="H200" s="39"/>
       <c r="I200" s="9"/>
       <c r="J200" s="11"/>
-      <c r="K200" s="20"/>
+      <c r="K200" s="49"/>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40"/>
@@ -6621,7 +6631,7 @@
       <c r="H201" s="39"/>
       <c r="I201" s="9"/>
       <c r="J201" s="11"/>
-      <c r="K201" s="49"/>
+      <c r="K201" s="20"/>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40"/>
@@ -6637,7 +6647,7 @@
       <c r="H202" s="39"/>
       <c r="I202" s="9"/>
       <c r="J202" s="11"/>
-      <c r="K202" s="20"/>
+      <c r="K202" s="49"/>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40"/>
@@ -6685,7 +6695,7 @@
       <c r="H205" s="39"/>
       <c r="I205" s="9"/>
       <c r="J205" s="11"/>
-      <c r="K205" s="49"/>
+      <c r="K205" s="20"/>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40"/>
@@ -6701,7 +6711,7 @@
       <c r="H206" s="39"/>
       <c r="I206" s="9"/>
       <c r="J206" s="11"/>
-      <c r="K206" s="20"/>
+      <c r="K206" s="49"/>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40"/>
@@ -6739,7 +6749,7 @@
       <c r="A209" s="40"/>
       <c r="B209" s="20"/>
       <c r="C209" s="13"/>
-      <c r="D209" s="52"/>
+      <c r="D209" s="39"/>
       <c r="E209" s="9"/>
       <c r="F209" s="20"/>
       <c r="G209" s="13" t="str">
@@ -6755,7 +6765,7 @@
       <c r="A210" s="40"/>
       <c r="B210" s="20"/>
       <c r="C210" s="13"/>
-      <c r="D210" s="39"/>
+      <c r="D210" s="52"/>
       <c r="E210" s="9"/>
       <c r="F210" s="20"/>
       <c r="G210" s="13" t="str">
@@ -6781,7 +6791,7 @@
       <c r="H211" s="39"/>
       <c r="I211" s="9"/>
       <c r="J211" s="11"/>
-      <c r="K211" s="49"/>
+      <c r="K211" s="20"/>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40"/>
@@ -6797,7 +6807,7 @@
       <c r="H212" s="39"/>
       <c r="I212" s="9"/>
       <c r="J212" s="11"/>
-      <c r="K212" s="20"/>
+      <c r="K212" s="49"/>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40"/>
@@ -6861,7 +6871,7 @@
       <c r="H216" s="39"/>
       <c r="I216" s="9"/>
       <c r="J216" s="11"/>
-      <c r="K216" s="49"/>
+      <c r="K216" s="20"/>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40"/>
@@ -6877,7 +6887,7 @@
       <c r="H217" s="39"/>
       <c r="I217" s="9"/>
       <c r="J217" s="11"/>
-      <c r="K217" s="20"/>
+      <c r="K217" s="49"/>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40"/>
@@ -6893,7 +6903,7 @@
       <c r="H218" s="39"/>
       <c r="I218" s="9"/>
       <c r="J218" s="11"/>
-      <c r="K218" s="49"/>
+      <c r="K218" s="20"/>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40"/>
@@ -6909,7 +6919,7 @@
       <c r="H219" s="39"/>
       <c r="I219" s="9"/>
       <c r="J219" s="11"/>
-      <c r="K219" s="20"/>
+      <c r="K219" s="49"/>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40"/>
@@ -6925,7 +6935,7 @@
       <c r="H220" s="39"/>
       <c r="I220" s="9"/>
       <c r="J220" s="11"/>
-      <c r="K220" s="49"/>
+      <c r="K220" s="20"/>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40"/>
@@ -6941,7 +6951,7 @@
       <c r="H221" s="39"/>
       <c r="I221" s="9"/>
       <c r="J221" s="11"/>
-      <c r="K221" s="20"/>
+      <c r="K221" s="49"/>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40"/>
@@ -6976,7 +6986,7 @@
       <c r="K223" s="20"/>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A224" s="48"/>
+      <c r="A224" s="40"/>
       <c r="B224" s="20"/>
       <c r="C224" s="13"/>
       <c r="D224" s="39"/>
@@ -6992,7 +7002,7 @@
       <c r="K224" s="20"/>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A225" s="40"/>
+      <c r="A225" s="48"/>
       <c r="B225" s="20"/>
       <c r="C225" s="13"/>
       <c r="D225" s="39"/>
@@ -7005,7 +7015,7 @@
       <c r="H225" s="39"/>
       <c r="I225" s="9"/>
       <c r="J225" s="11"/>
-      <c r="K225" s="49"/>
+      <c r="K225" s="20"/>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40"/>
@@ -7021,7 +7031,7 @@
       <c r="H226" s="39"/>
       <c r="I226" s="9"/>
       <c r="J226" s="11"/>
-      <c r="K226" s="20"/>
+      <c r="K226" s="49"/>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40"/>
@@ -7277,7 +7287,7 @@
       <c r="H242" s="39"/>
       <c r="I242" s="9"/>
       <c r="J242" s="11"/>
-      <c r="K242" s="49"/>
+      <c r="K242" s="20"/>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40"/>
@@ -7293,7 +7303,7 @@
       <c r="H243" s="39"/>
       <c r="I243" s="9"/>
       <c r="J243" s="11"/>
-      <c r="K243" s="20"/>
+      <c r="K243" s="49"/>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40"/>
@@ -7373,7 +7383,7 @@
       <c r="H248" s="39"/>
       <c r="I248" s="9"/>
       <c r="J248" s="11"/>
-      <c r="K248" s="49"/>
+      <c r="K248" s="20"/>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40"/>
@@ -7389,7 +7399,7 @@
       <c r="H249" s="39"/>
       <c r="I249" s="9"/>
       <c r="J249" s="11"/>
-      <c r="K249" s="20"/>
+      <c r="K249" s="49"/>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40"/>
@@ -7453,7 +7463,7 @@
       <c r="H253" s="39"/>
       <c r="I253" s="9"/>
       <c r="J253" s="11"/>
-      <c r="K253" s="49"/>
+      <c r="K253" s="20"/>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40"/>
@@ -7501,7 +7511,7 @@
       <c r="H256" s="39"/>
       <c r="I256" s="9"/>
       <c r="J256" s="11"/>
-      <c r="K256" s="20"/>
+      <c r="K256" s="49"/>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40"/>
@@ -7533,7 +7543,7 @@
       <c r="H258" s="39"/>
       <c r="I258" s="9"/>
       <c r="J258" s="11"/>
-      <c r="K258" s="49"/>
+      <c r="K258" s="20"/>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40"/>
@@ -7549,7 +7559,7 @@
       <c r="H259" s="39"/>
       <c r="I259" s="9"/>
       <c r="J259" s="11"/>
-      <c r="K259" s="20"/>
+      <c r="K259" s="49"/>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40"/>
@@ -7661,7 +7671,7 @@
       <c r="H266" s="39"/>
       <c r="I266" s="9"/>
       <c r="J266" s="11"/>
-      <c r="K266" s="49"/>
+      <c r="K266" s="20"/>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40"/>
@@ -7693,10 +7703,10 @@
       <c r="H268" s="39"/>
       <c r="I268" s="9"/>
       <c r="J268" s="11"/>
-      <c r="K268" s="20"/>
+      <c r="K268" s="49"/>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A269" s="48"/>
+      <c r="A269" s="40"/>
       <c r="B269" s="20"/>
       <c r="C269" s="13"/>
       <c r="D269" s="39"/>
@@ -7712,7 +7722,7 @@
       <c r="K269" s="20"/>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A270" s="40"/>
+      <c r="A270" s="48"/>
       <c r="B270" s="20"/>
       <c r="C270" s="13"/>
       <c r="D270" s="39"/>
@@ -7725,7 +7735,7 @@
       <c r="H270" s="39"/>
       <c r="I270" s="9"/>
       <c r="J270" s="11"/>
-      <c r="K270" s="49"/>
+      <c r="K270" s="20"/>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40"/>
@@ -7741,7 +7751,7 @@
       <c r="H271" s="39"/>
       <c r="I271" s="9"/>
       <c r="J271" s="11"/>
-      <c r="K271" s="20"/>
+      <c r="K271" s="49"/>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40"/>
@@ -7757,7 +7767,7 @@
       <c r="H272" s="39"/>
       <c r="I272" s="9"/>
       <c r="J272" s="11"/>
-      <c r="K272" s="49"/>
+      <c r="K272" s="20"/>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40"/>
@@ -7773,7 +7783,7 @@
       <c r="H273" s="39"/>
       <c r="I273" s="9"/>
       <c r="J273" s="11"/>
-      <c r="K273" s="20"/>
+      <c r="K273" s="49"/>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40"/>
@@ -7805,7 +7815,7 @@
       <c r="H275" s="39"/>
       <c r="I275" s="9"/>
       <c r="J275" s="11"/>
-      <c r="K275" s="49"/>
+      <c r="K275" s="20"/>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40"/>
@@ -7837,7 +7847,7 @@
       <c r="H277" s="39"/>
       <c r="I277" s="9"/>
       <c r="J277" s="11"/>
-      <c r="K277" s="20"/>
+      <c r="K277" s="49"/>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40"/>
@@ -7853,7 +7863,7 @@
       <c r="H278" s="39"/>
       <c r="I278" s="9"/>
       <c r="J278" s="11"/>
-      <c r="K278" s="49"/>
+      <c r="K278" s="20"/>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40"/>
@@ -7885,7 +7895,7 @@
       <c r="H280" s="39"/>
       <c r="I280" s="9"/>
       <c r="J280" s="11"/>
-      <c r="K280" s="20"/>
+      <c r="K280" s="49"/>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40"/>
@@ -7901,7 +7911,7 @@
       <c r="H281" s="39"/>
       <c r="I281" s="9"/>
       <c r="J281" s="11"/>
-      <c r="K281" s="49"/>
+      <c r="K281" s="20"/>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40"/>
@@ -7917,7 +7927,7 @@
       <c r="H282" s="39"/>
       <c r="I282" s="9"/>
       <c r="J282" s="11"/>
-      <c r="K282" s="20"/>
+      <c r="K282" s="49"/>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40"/>
@@ -7949,7 +7959,7 @@
       <c r="H284" s="39"/>
       <c r="I284" s="9"/>
       <c r="J284" s="11"/>
-      <c r="K284" s="49"/>
+      <c r="K284" s="20"/>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40"/>
@@ -7965,7 +7975,7 @@
       <c r="H285" s="39"/>
       <c r="I285" s="9"/>
       <c r="J285" s="11"/>
-      <c r="K285" s="20"/>
+      <c r="K285" s="49"/>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40"/>
@@ -7981,7 +7991,7 @@
       <c r="H286" s="39"/>
       <c r="I286" s="9"/>
       <c r="J286" s="11"/>
-      <c r="K286" s="49"/>
+      <c r="K286" s="20"/>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40"/>
@@ -7997,7 +8007,7 @@
       <c r="H287" s="39"/>
       <c r="I287" s="9"/>
       <c r="J287" s="11"/>
-      <c r="K287" s="20"/>
+      <c r="K287" s="49"/>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40"/>
@@ -8013,7 +8023,7 @@
       <c r="H288" s="39"/>
       <c r="I288" s="9"/>
       <c r="J288" s="11"/>
-      <c r="K288" s="49"/>
+      <c r="K288" s="20"/>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40"/>
@@ -8061,7 +8071,7 @@
       <c r="H291" s="39"/>
       <c r="I291" s="9"/>
       <c r="J291" s="11"/>
-      <c r="K291" s="20"/>
+      <c r="K291" s="49"/>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40"/>
@@ -8077,7 +8087,7 @@
       <c r="H292" s="39"/>
       <c r="I292" s="9"/>
       <c r="J292" s="11"/>
-      <c r="K292" s="49"/>
+      <c r="K292" s="20"/>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40"/>
@@ -8109,7 +8119,7 @@
       <c r="H294" s="39"/>
       <c r="I294" s="9"/>
       <c r="J294" s="11"/>
-      <c r="K294" s="20"/>
+      <c r="K294" s="49"/>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40"/>
@@ -8157,7 +8167,7 @@
       <c r="H297" s="39"/>
       <c r="I297" s="9"/>
       <c r="J297" s="11"/>
-      <c r="K297" s="49"/>
+      <c r="K297" s="20"/>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40"/>
@@ -8189,7 +8199,7 @@
       <c r="H299" s="39"/>
       <c r="I299" s="9"/>
       <c r="J299" s="11"/>
-      <c r="K299" s="20"/>
+      <c r="K299" s="49"/>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40"/>
@@ -8221,7 +8231,7 @@
       <c r="H301" s="39"/>
       <c r="I301" s="9"/>
       <c r="J301" s="11"/>
-      <c r="K301" s="49"/>
+      <c r="K301" s="20"/>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40"/>
@@ -8253,10 +8263,10 @@
       <c r="H303" s="39"/>
       <c r="I303" s="9"/>
       <c r="J303" s="11"/>
-      <c r="K303" s="20"/>
+      <c r="K303" s="49"/>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A304" s="48"/>
+      <c r="A304" s="40"/>
       <c r="B304" s="20"/>
       <c r="C304" s="13"/>
       <c r="D304" s="39"/>
@@ -8272,7 +8282,7 @@
       <c r="K304" s="20"/>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A305" s="40"/>
+      <c r="A305" s="48"/>
       <c r="B305" s="20"/>
       <c r="C305" s="13"/>
       <c r="D305" s="39"/>
@@ -8349,7 +8359,7 @@
       <c r="H309" s="39"/>
       <c r="I309" s="9"/>
       <c r="J309" s="11"/>
-      <c r="K309" s="49"/>
+      <c r="K309" s="20"/>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40"/>
@@ -8365,7 +8375,7 @@
       <c r="H310" s="39"/>
       <c r="I310" s="9"/>
       <c r="J310" s="11"/>
-      <c r="K310" s="20"/>
+      <c r="K310" s="49"/>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40"/>
@@ -8413,7 +8423,7 @@
       <c r="H313" s="39"/>
       <c r="I313" s="9"/>
       <c r="J313" s="11"/>
-      <c r="K313" s="49"/>
+      <c r="K313" s="20"/>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40"/>
@@ -8429,7 +8439,7 @@
       <c r="H314" s="39"/>
       <c r="I314" s="9"/>
       <c r="J314" s="11"/>
-      <c r="K314" s="20"/>
+      <c r="K314" s="49"/>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40"/>
@@ -8445,7 +8455,7 @@
       <c r="H315" s="39"/>
       <c r="I315" s="9"/>
       <c r="J315" s="11"/>
-      <c r="K315" s="49"/>
+      <c r="K315" s="20"/>
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40"/>
@@ -8461,7 +8471,7 @@
       <c r="H316" s="39"/>
       <c r="I316" s="9"/>
       <c r="J316" s="11"/>
-      <c r="K316" s="20"/>
+      <c r="K316" s="49"/>
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40"/>
@@ -8477,7 +8487,7 @@
       <c r="H317" s="39"/>
       <c r="I317" s="9"/>
       <c r="J317" s="11"/>
-      <c r="K317" s="49"/>
+      <c r="K317" s="20"/>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40"/>
@@ -8509,7 +8519,7 @@
       <c r="H319" s="39"/>
       <c r="I319" s="9"/>
       <c r="J319" s="11"/>
-      <c r="K319" s="20"/>
+      <c r="K319" s="49"/>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40"/>
@@ -8541,7 +8551,7 @@
       <c r="H321" s="39"/>
       <c r="I321" s="9"/>
       <c r="J321" s="11"/>
-      <c r="K321" s="49"/>
+      <c r="K321" s="20"/>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40"/>
@@ -8573,7 +8583,7 @@
       <c r="H323" s="39"/>
       <c r="I323" s="9"/>
       <c r="J323" s="11"/>
-      <c r="K323" s="20"/>
+      <c r="K323" s="49"/>
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40"/>
@@ -8589,7 +8599,7 @@
       <c r="H324" s="39"/>
       <c r="I324" s="9"/>
       <c r="J324" s="11"/>
-      <c r="K324" s="49"/>
+      <c r="K324" s="20"/>
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40"/>
@@ -8605,7 +8615,7 @@
       <c r="H325" s="39"/>
       <c r="I325" s="9"/>
       <c r="J325" s="11"/>
-      <c r="K325" s="20"/>
+      <c r="K325" s="49"/>
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40"/>
@@ -8637,7 +8647,7 @@
       <c r="H327" s="39"/>
       <c r="I327" s="9"/>
       <c r="J327" s="11"/>
-      <c r="K327" s="49"/>
+      <c r="K327" s="20"/>
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40"/>
@@ -8656,7 +8666,7 @@
       <c r="K328" s="49"/>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A329" s="48"/>
+      <c r="A329" s="40"/>
       <c r="B329" s="20"/>
       <c r="C329" s="13"/>
       <c r="D329" s="39"/>
@@ -8669,10 +8679,10 @@
       <c r="H329" s="39"/>
       <c r="I329" s="9"/>
       <c r="J329" s="11"/>
-      <c r="K329" s="20"/>
+      <c r="K329" s="49"/>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A330" s="40"/>
+      <c r="A330" s="48"/>
       <c r="B330" s="20"/>
       <c r="C330" s="13"/>
       <c r="D330" s="39"/>
@@ -8685,7 +8695,7 @@
       <c r="H330" s="39"/>
       <c r="I330" s="9"/>
       <c r="J330" s="11"/>
-      <c r="K330" s="49"/>
+      <c r="K330" s="20"/>
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40"/>
@@ -8701,7 +8711,7 @@
       <c r="H331" s="39"/>
       <c r="I331" s="9"/>
       <c r="J331" s="11"/>
-      <c r="K331" s="20"/>
+      <c r="K331" s="49"/>
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40"/>
@@ -8717,7 +8727,7 @@
       <c r="H332" s="39"/>
       <c r="I332" s="9"/>
       <c r="J332" s="11"/>
-      <c r="K332" s="49"/>
+      <c r="K332" s="20"/>
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40"/>
@@ -8733,7 +8743,7 @@
       <c r="H333" s="39"/>
       <c r="I333" s="9"/>
       <c r="J333" s="11"/>
-      <c r="K333" s="20"/>
+      <c r="K333" s="49"/>
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40"/>
@@ -8765,7 +8775,7 @@
       <c r="H335" s="39"/>
       <c r="I335" s="9"/>
       <c r="J335" s="11"/>
-      <c r="K335" s="49"/>
+      <c r="K335" s="20"/>
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40"/>
@@ -8797,7 +8807,7 @@
       <c r="H337" s="39"/>
       <c r="I337" s="9"/>
       <c r="J337" s="11"/>
-      <c r="K337" s="20"/>
+      <c r="K337" s="49"/>
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40"/>
@@ -8861,7 +8871,7 @@
       <c r="H341" s="39"/>
       <c r="I341" s="9"/>
       <c r="J341" s="11"/>
-      <c r="K341" s="49"/>
+      <c r="K341" s="20"/>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40"/>
@@ -8893,7 +8903,7 @@
       <c r="H343" s="39"/>
       <c r="I343" s="9"/>
       <c r="J343" s="11"/>
-      <c r="K343" s="20"/>
+      <c r="K343" s="49"/>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40"/>
@@ -8957,7 +8967,7 @@
       <c r="H347" s="39"/>
       <c r="I347" s="9"/>
       <c r="J347" s="11"/>
-      <c r="K347" s="49"/>
+      <c r="K347" s="20"/>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40"/>
@@ -8973,7 +8983,7 @@
       <c r="H348" s="39"/>
       <c r="I348" s="9"/>
       <c r="J348" s="11"/>
-      <c r="K348" s="20"/>
+      <c r="K348" s="49"/>
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40"/>
@@ -9053,7 +9063,7 @@
       <c r="H353" s="39"/>
       <c r="I353" s="9"/>
       <c r="J353" s="11"/>
-      <c r="K353" s="49"/>
+      <c r="K353" s="20"/>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40"/>
@@ -9069,7 +9079,7 @@
       <c r="H354" s="39"/>
       <c r="I354" s="9"/>
       <c r="J354" s="11"/>
-      <c r="K354" s="20"/>
+      <c r="K354" s="49"/>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40"/>
@@ -9117,7 +9127,7 @@
       <c r="H357" s="39"/>
       <c r="I357" s="9"/>
       <c r="J357" s="11"/>
-      <c r="K357" s="49"/>
+      <c r="K357" s="20"/>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40"/>
@@ -9133,7 +9143,7 @@
       <c r="H358" s="39"/>
       <c r="I358" s="9"/>
       <c r="J358" s="11"/>
-      <c r="K358" s="20"/>
+      <c r="K358" s="49"/>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40"/>
@@ -9152,7 +9162,7 @@
       <c r="K359" s="20"/>
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A360" s="48"/>
+      <c r="A360" s="40"/>
       <c r="B360" s="20"/>
       <c r="C360" s="13"/>
       <c r="D360" s="39"/>
@@ -9168,7 +9178,7 @@
       <c r="K360" s="20"/>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A361" s="40"/>
+      <c r="A361" s="48"/>
       <c r="B361" s="20"/>
       <c r="C361" s="13"/>
       <c r="D361" s="39"/>
@@ -9181,7 +9191,7 @@
       <c r="H361" s="39"/>
       <c r="I361" s="9"/>
       <c r="J361" s="11"/>
-      <c r="K361" s="49"/>
+      <c r="K361" s="20"/>
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40"/>
@@ -9197,7 +9207,7 @@
       <c r="H362" s="39"/>
       <c r="I362" s="9"/>
       <c r="J362" s="11"/>
-      <c r="K362" s="20"/>
+      <c r="K362" s="49"/>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40"/>
@@ -9213,7 +9223,7 @@
       <c r="H363" s="39"/>
       <c r="I363" s="9"/>
       <c r="J363" s="11"/>
-      <c r="K363" s="49"/>
+      <c r="K363" s="20"/>
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40"/>
@@ -9245,7 +9255,7 @@
       <c r="H365" s="39"/>
       <c r="I365" s="9"/>
       <c r="J365" s="11"/>
-      <c r="K365" s="20"/>
+      <c r="K365" s="49"/>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40"/>
@@ -9261,7 +9271,7 @@
       <c r="H366" s="39"/>
       <c r="I366" s="9"/>
       <c r="J366" s="11"/>
-      <c r="K366" s="49"/>
+      <c r="K366" s="20"/>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40"/>
@@ -9277,7 +9287,7 @@
       <c r="H367" s="39"/>
       <c r="I367" s="9"/>
       <c r="J367" s="11"/>
-      <c r="K367" s="20"/>
+      <c r="K367" s="49"/>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40"/>
@@ -9456,7 +9466,7 @@
       <c r="K378" s="20"/>
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A379" s="48"/>
+      <c r="A379" s="40"/>
       <c r="B379" s="20"/>
       <c r="C379" s="13"/>
       <c r="D379" s="39"/>
@@ -9472,7 +9482,7 @@
       <c r="K379" s="20"/>
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A380" s="40"/>
+      <c r="A380" s="48"/>
       <c r="B380" s="20"/>
       <c r="C380" s="13"/>
       <c r="D380" s="39"/>
@@ -9664,7 +9674,7 @@
       <c r="K391" s="20"/>
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A392" s="48"/>
+      <c r="A392" s="40"/>
       <c r="B392" s="20"/>
       <c r="C392" s="13"/>
       <c r="D392" s="39"/>
@@ -9680,7 +9690,7 @@
       <c r="K392" s="20"/>
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A393" s="40"/>
+      <c r="A393" s="48"/>
       <c r="B393" s="20"/>
       <c r="C393" s="13"/>
       <c r="D393" s="39"/>
@@ -9872,7 +9882,7 @@
       <c r="K404" s="20"/>
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A405" s="48"/>
+      <c r="A405" s="40"/>
       <c r="B405" s="20"/>
       <c r="C405" s="13"/>
       <c r="D405" s="39"/>
@@ -9888,7 +9898,7 @@
       <c r="K405" s="20"/>
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A406" s="40"/>
+      <c r="A406" s="48"/>
       <c r="B406" s="20"/>
       <c r="C406" s="13"/>
       <c r="D406" s="39"/>
@@ -10080,7 +10090,7 @@
       <c r="K417" s="20"/>
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A418" s="48"/>
+      <c r="A418" s="40"/>
       <c r="B418" s="20"/>
       <c r="C418" s="13"/>
       <c r="D418" s="39"/>
@@ -10096,7 +10106,7 @@
       <c r="K418" s="20"/>
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A419" s="40"/>
+      <c r="A419" s="48"/>
       <c r="B419" s="20"/>
       <c r="C419" s="13"/>
       <c r="D419" s="39"/>
@@ -10288,7 +10298,7 @@
       <c r="K430" s="20"/>
     </row>
     <row r="431" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A431" s="48"/>
+      <c r="A431" s="40"/>
       <c r="B431" s="20"/>
       <c r="C431" s="13"/>
       <c r="D431" s="39"/>
@@ -10304,7 +10314,7 @@
       <c r="K431" s="20"/>
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A432" s="40"/>
+      <c r="A432" s="48"/>
       <c r="B432" s="20"/>
       <c r="C432" s="13"/>
       <c r="D432" s="39"/>
@@ -10496,7 +10506,7 @@
       <c r="K443" s="20"/>
     </row>
     <row r="444" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A444" s="48"/>
+      <c r="A444" s="40"/>
       <c r="B444" s="20"/>
       <c r="C444" s="13"/>
       <c r="D444" s="39"/>
@@ -10512,7 +10522,7 @@
       <c r="K444" s="20"/>
     </row>
     <row r="445" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A445" s="40"/>
+      <c r="A445" s="48"/>
       <c r="B445" s="20"/>
       <c r="C445" s="13"/>
       <c r="D445" s="39"/>
@@ -11584,20 +11594,36 @@
       <c r="K511" s="20"/>
     </row>
     <row r="512" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A512" s="41"/>
-      <c r="B512" s="15"/>
-      <c r="C512" s="42"/>
-      <c r="D512" s="43"/>
-      <c r="E512" s="51"/>
-      <c r="F512" s="15"/>
+      <c r="A512" s="40"/>
+      <c r="B512" s="20"/>
+      <c r="C512" s="13"/>
+      <c r="D512" s="39"/>
+      <c r="E512" s="9"/>
+      <c r="F512" s="20"/>
       <c r="G512" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H512" s="43"/>
-      <c r="I512" s="51"/>
-      <c r="J512" s="12"/>
-      <c r="K512" s="15"/>
+      <c r="H512" s="39"/>
+      <c r="I512" s="9"/>
+      <c r="J512" s="11"/>
+      <c r="K512" s="20"/>
+    </row>
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A513" s="41"/>
+      <c r="B513" s="15"/>
+      <c r="C513" s="42"/>
+      <c r="D513" s="43"/>
+      <c r="E513" s="51"/>
+      <c r="F513" s="15"/>
+      <c r="G513" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H513" s="43"/>
+      <c r="I513" s="51"/>
+      <c r="J513" s="12"/>
+      <c r="K513" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
